--- a/7robots/RealStateScraping/Scraping/HouseInformation.xlsx
+++ b/7robots/RealStateScraping/Scraping/HouseInformation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\uipath\7robots\RealStateScraping\Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5750D7-BB25-4D8A-BB31-15A054B7A41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60ACE4B-827F-4021-820B-10725C47AA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9F991302-CBD0-40F1-945A-0530FE5E1615}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7785" xr2:uid="{9F991302-CBD0-40F1-945A-0530FE5E1615}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NEW YORK" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,1064 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>FullAddress</t>
+  </si>
+  <si>
+    <t>HomeUrl</t>
+  </si>
+  <si>
+    <t>Beds</t>
+  </si>
+  <si>
+    <t>Baths</t>
+  </si>
+  <si>
+    <t>SqrFeets</t>
+  </si>
+  <si>
+    <t>9190 Martin Rd, Clarence Center, NY 14032</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9190-Martin-Rd-Clarence-Center-NY-14032/30307028_zpid/</t>
+  </si>
+  <si>
+    <t>72 Watch Hill Drive, Fishkill, NY 12524</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/72-Watch-Hill-Dr-Fishkill-NY-12524/30105361_zpid/</t>
+  </si>
+  <si>
+    <t>130 Cedar Drive, Kerhonkson, NY 12446</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/130-Cedar-Dr-Kerhonkson-NY-12446/32861155_zpid/</t>
+  </si>
+  <si>
+    <t>613 Fischer Rd, Kinderhook, NY 12106</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/613-Fischer-Rd-Kinderhook-NY-12106/215409497_zpid/</t>
+  </si>
+  <si>
+    <t>23 Julia Rose Court, Glenmont, NY 12077</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/23-Julia-Rose-Ct-Glenmont-NY-12077/246198797_zpid/</t>
+  </si>
+  <si>
+    <t>684 Pleasant View Dr, Lancaster, NY 14086</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/684-Pleasant-View-Dr-Lancaster-NY-14086/98054770_zpid/</t>
+  </si>
+  <si>
+    <t>3570 Old Yorktown Road, Yorktown Heights, NY 10598</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3570-Old-Yorktown-Rd-Yorktown-Heights-NY-10598/58425462_zpid/</t>
+  </si>
+  <si>
+    <t>6 Trout Street, Oakdale, NY 11769</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6-Trout-St-Oakdale-NY-11769/59643081_zpid/</t>
+  </si>
+  <si>
+    <t>21 Littlewood Ln E, Rochester, NY 14625</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/21-Littlewood-Ln-E-Rochester-NY-14625/30999962_zpid/</t>
+  </si>
+  <si>
+    <t>17 Julians Way, Saratoga Springs, NY 12866</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/17-Julians-Way-Saratoga-Springs-NY-12866/55750500_zpid/</t>
+  </si>
+  <si>
+    <t>68 Liberty St, Oswego, NY 13126</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/68-Liberty-St-Oswego-NY-13126/53757691_zpid/</t>
+  </si>
+  <si>
+    <t>507 Furnace Dock Road, Cortlandt Manor, NY 10567</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/507-Furnace-Dock-Rd-Cortlandt-Manor-NY-10567/58415746_zpid/</t>
+  </si>
+  <si>
+    <t>1339 Farm To Market Rd, Endwell, NY 13760</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1339-Farm-To-Market-Rd-Endwell-NY-13760/29759128_zpid/</t>
+  </si>
+  <si>
+    <t>220 Thompson Shore Road, Manhasset, NY 11030</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/220-Thompson-Shore-Rd-Manhasset-NY-11030/31073381_zpid/</t>
+  </si>
+  <si>
+    <t>14 Maricrest Dr, Amherst, NY 14228</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/14-Maricrest-Dr-Amherst-NY-14228/30241066_zpid/</t>
+  </si>
+  <si>
+    <t>57 Matinecock Avenue, East Islip, NY 11730</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/57-Matinecock-Ave-East-Islip-NY-11730/59653910_zpid/</t>
+  </si>
+  <si>
+    <t>5732 Beanpole Cir, Farmington, NY 14425</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5732-Beanpole-Cir-Farmington-NY-14425/31887133_zpid/</t>
+  </si>
+  <si>
+    <t>26 Old Field Road, Setauket, NY 11733</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/26-Old-Field-Rd-Setauket-NY-11733/59317278_zpid/</t>
+  </si>
+  <si>
+    <t>135 Beachview Ave, Staten Island, NY 10306</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/135-Beachview-Ave-Staten-Island-NY-10306/32332453_zpid/</t>
+  </si>
+  <si>
+    <t>2230 W Lake Rd, Skaneateles, NY 13152</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2230-W-Lake-Rd-Skaneateles-NY-13152/31780285_zpid/</t>
+  </si>
+  <si>
+    <t>4 Wells Avenue, Croton-On-Hudson, NY 10520</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4-Wells-Ave-Croton-On-Hudson-NY-10520/58409154_zpid/</t>
+  </si>
+  <si>
+    <t>10 Westhaven Dr, Rochester, NY 14624</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10-Westhaven-Dr-Rochester-NY-14624/30925257_zpid/</t>
+  </si>
+  <si>
+    <t>774 Frankford Road, West Babylon, NY 11704</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/774-Frankford-Rd-West-Babylon-NY-11704/32646311_zpid/</t>
+  </si>
+  <si>
+    <t>25 Rockton St, Amsterdam, NY 12010</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/25-Rockton-St-Amsterdam-NY-12010/219617507_zpid/</t>
+  </si>
+  <si>
+    <t>40 Friendly Road, Hicksville, NY 11801</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/40-Friendly-Rd-Hicksville-NY-11801/31283250_zpid/</t>
+  </si>
+  <si>
+    <t>34 Willow Road, New Hyde Park, NY 11040</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/34-Willow-Rd-New-Hyde-Park-NY-11040/31097443_zpid/</t>
+  </si>
+  <si>
+    <t>64 Ackerly Lane, Ronkonkoma, NY 11779</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/64-Ackerly-Ln-Ronkonkoma-NY-11779/59514357_zpid/</t>
+  </si>
+  <si>
+    <t>19 Myrtledale Road, Scarsdale, NY 10583</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/19-Myrtledale-Rd-Scarsdale-NY-10583/33096913_zpid/</t>
+  </si>
+  <si>
+    <t>20 Kermit Ave, Staten Island, NY 10305</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/20-Kermit-Ave-Staten-Island-NY-10305/32324975_zpid/</t>
+  </si>
+  <si>
+    <t>16 Plane Tree Lane, Saint James, NY 11780</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/16-Plane-Tree-Ln-Saint-James-NY-11780/32690761_zpid/</t>
+  </si>
+  <si>
+    <t>89 Lianne Dr, Rochester, NY 14626</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/89-Lianne-Dr-Rochester-NY-14626/124241084_zpid/</t>
+  </si>
+  <si>
+    <t>100 Lincoln Avenue, Colonie, NY 12205</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/100-Lincoln-Ave-Colonie-NY-12205/29680161_zpid/</t>
+  </si>
+  <si>
+    <t>3 Oak Street, Saint James, NY 11780</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3-Oak-St-Saint-James-NY-11780/32696207_zpid/</t>
+  </si>
+  <si>
+    <t>345 Stanley Avenue, Mamaroneck, NY 10543</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/345-Stanley-Ave-Mamaroneck-NY-10543/33047882_zpid/</t>
+  </si>
+  <si>
+    <t>371 Fisher Rd, Pittsford, NY 14534</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/371-Fisher-Rd-Pittsford-NY-14534/31900666_zpid/</t>
+  </si>
+  <si>
+    <t>500 Centre Island Road, Centre Island, NY 11771</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/500-Centre-Island-Rd-Oyster-Bay-NY-11771/31162908_zpid/</t>
+  </si>
+  <si>
+    <t>11 Stratford Pl, Binghamton, NY 13905</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11-Stratford-Pl-Binghamton-NY-13905/29723224_zpid/</t>
+  </si>
+  <si>
+    <t>1026 Merillon Avenue, Westbury, NY 11590</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1026-Merillon-Ave-Westbury-NY-11590/31277509_zpid/</t>
+  </si>
+  <si>
+    <t>1509 Youngstown Wilson Rd, Youngstown, NY 14174</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1509-Youngstown-Wilson-Rd-Youngstown-NY-14174/31479935_zpid/</t>
+  </si>
+  <si>
+    <t>12 Windsor Road, Monroe, NY 10950</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/12-Windsor-Rd-Monroe-NY-10950/31801499_zpid/</t>
+  </si>
+  <si>
+    <t>30 Cayuga Avenue, East Northport, NY 11731</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/30-Cayuga-Ave-East-Northport-NY-11731/59559535_zpid/</t>
+  </si>
+  <si>
+    <t>2309 Highland Ave, Rochester, NY 14610</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2309-Highland-Ave-Rochester-NY-14610/30892872_zpid/</t>
+  </si>
+  <si>
+    <t>875 Central Parkway Parkway, Schenectady, NY 12309</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/875-Central-Pkwy-Schenectady-NY-12309/32474145_zpid/</t>
+  </si>
+  <si>
+    <t>18 Kingston Avenue, West Harrison, NY 10604</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/18-Kingston-Ave-West-Harrison-NY-10604/33039788_zpid/</t>
+  </si>
+  <si>
+    <t>285 Park Street, Greenport, NY 11944</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/285-Park-St-Greenport-NY-11944/32747174_zpid/</t>
+  </si>
+  <si>
+    <t>1979 Glasco Turnpike, Woodstock, NY 12498</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1979-Glasco-Tpke-Woodstock-NY-12498/32884892_zpid/</t>
+  </si>
+  <si>
+    <t>1 Eastview Dr, Ravena, NY 12143</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1-Eastview-Dr-Ravena-NY-12143/29676458_zpid/</t>
+  </si>
+  <si>
+    <t>184 58th St, Niagara Falls, NY 14304</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/184-58th-St-Niagara-Falls-NY-14304/31449251_zpid/</t>
+  </si>
+  <si>
+    <t>84 Stroud Ave, Staten Island, NY 10312</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/84-Stroud-Ave-Staten-Island-NY-10312/32356050_zpid/</t>
+  </si>
+  <si>
+    <t>8 Mcintyre Street, Bronxville, NY 10708</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8-McIntyre-St-Yonkers-NY-10708/33002199_zpid/</t>
+  </si>
+  <si>
+    <t>421 Church Ave, Germantown, NY 12526</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/421-Church-Ave-Germantown-NY-12526/305299330_zpid/</t>
+  </si>
+  <si>
+    <t>10341 Taberg Florence Rd, Camden, NY 13316</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10341-Taberg-Florence-Rd-Camden-NY-13316/103734630_zpid/</t>
+  </si>
+  <si>
+    <t>39 Norton Ave, Jamestown, NY 14701</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/39-Norton-Ave-Jamestown-NY-14701/29892731_zpid/</t>
+  </si>
+  <si>
+    <t>809 E Lake Rd, Penn Yan, NY 14527</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/809-E-Lake-Rd-Penn-Yan-NY-14527/53792390_zpid/</t>
+  </si>
+  <si>
+    <t>31 Spring St, Phoenix, NY 13135</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/31-Spring-St-Phoenix-NY-13135/53784048_zpid/</t>
+  </si>
+  <si>
+    <t>510 Castle Creek Rd, Binghamton, NY 13901</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/510-Castle-Creek-Rd-Binghamton-NY-13901/29734208_zpid/</t>
+  </si>
+  <si>
+    <t>9 Hoffman Drive, Kings Park, NY 11754</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9-Hoffman-Dr-Kings-Park-NY-11754/32684058_zpid/</t>
+  </si>
+  <si>
+    <t>22 Pine Ridge Drive, Smithtown, NY 11787</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/22-Pine-Ridge-Dr-Smithtown-NY-11787/32703020_zpid/</t>
+  </si>
+  <si>
+    <t>131 Southern Boulevard, East Patchogue, NY 11772</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/131-Southern-Blvd-East-Patchogue-NY-11772/59544708_zpid/</t>
+  </si>
+  <si>
+    <t>1 Ferndale Avenue, Selden, NY 11784</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1-Ferndale-Ave-Selden-NY-11784/59496663_zpid/</t>
+  </si>
+  <si>
+    <t>6600 Route 55, Wingdale, NY 12594</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6600-Route-55-Wingdale-NY-12594/30094294_zpid/</t>
+  </si>
+  <si>
+    <t>1778 Nine Mile Point Rd, Penfield, NY 14526</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1778-Nine-Mile-Point-Rd-Penfield-NY-14526/31004993_zpid/</t>
+  </si>
+  <si>
+    <t>195 Amherst Street, Hempstead, NY 11550</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/195-Amherst-St-Hempstead-NY-11550/31197310_zpid/</t>
+  </si>
+  <si>
+    <t>517 Harrison Avenue, Schenectady, NY 12306</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/517-Harrison-Ave-Schenectady-NY-12306/32466680_zpid/</t>
+  </si>
+  <si>
+    <t>538 S 9th Avenue, Mount Vernon, NY 10550</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/538-S-9th-Ave-Mount-Vernon-NY-10550/32955212_zpid/</t>
+  </si>
+  <si>
+    <t>2762 Ridgeway Ave, Rochester, NY 14626</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2762-Ridgeway-Ave-Rochester-NY-14626/30953343_zpid/</t>
+  </si>
+  <si>
+    <t>5 Northgate, Goshen, NY 10924</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5-Northgate-Goshen-NY-10924/31818356_zpid/</t>
+  </si>
+  <si>
+    <t>18 E Lake Rd, Cohocton, NY 14826</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/18-E-Lake-Rd-Cohocton-NY-14826/32593153_zpid/</t>
+  </si>
+  <si>
+    <t>16 Fay Park Dr, North Syracuse, NY 13212</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/16-Fay-Park-Dr-North-Syracuse-NY-13212/31771595_zpid/</t>
+  </si>
+  <si>
+    <t>313 County Highway 17, New Berlin, NY 13411</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/313-County-Highway-17-New-Berlin-NY-13411/31637053_zpid/</t>
+  </si>
+  <si>
+    <t>15 Ogden Rd, Ithaca, NY 14850</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/15-Ogden-Rd-Ithaca-NY-14850/32814095_zpid/</t>
+  </si>
+  <si>
+    <t>1341 Pelhamdale Avenue, Pelham, NY 10803</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1341-Pelhamdale-Ave-Pelham-NY-10803/33082750_zpid/</t>
+  </si>
+  <si>
+    <t>348 Darlington Ave, Staten Island, NY 10312</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/348-Darlington-Ave-Staten-Island-NY-10312/32368782_zpid/</t>
+  </si>
+  <si>
+    <t>116 Shell Edge Dr, Rochester, NY 14623</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/116-Shell-Edge-Dr-Rochester-NY-14623/30960210_zpid/</t>
+  </si>
+  <si>
+    <t>290 Iroquois Street, Ronkonkoma, NY 11779</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/290-Iroquois-St-Ronkonkoma-NY-11779/59603318_zpid/</t>
+  </si>
+  <si>
+    <t>518 Kensington Rd, Syracuse, NY 13210</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/518-Kensington-Rd-Syracuse-NY-13210/31670833_zpid/</t>
+  </si>
+  <si>
+    <t>85 Station Road, Great Neck, NY 11023</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/85-Station-Rd-Great-Neck-NY-11023/31071106_zpid/</t>
+  </si>
+  <si>
+    <t>71 Ridge Road, Valley Cottage, NY 10989</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/71-Ridge-Rd-Valley-Cottage-NY-10989/53404372_zpid/</t>
+  </si>
+  <si>
+    <t>32 Nelson St, Fairport, NY 14450</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/32-Nelson-St-Fairport-NY-14450/31008927_zpid/</t>
+  </si>
+  <si>
+    <t>300 Florida Avenue, Copiague, NY 11726</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/300-Florida-Ave-Copiague-NY-11726/32642987_zpid/</t>
+  </si>
+  <si>
+    <t>131-39 225th Street, Laurelton, NY 11413</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/13139-225th-St-Laurelton-NY-11413/32200545_zpid/</t>
+  </si>
+  <si>
+    <t>4044 Killarney Ln, Manlius, NY 13104</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4044-Killarney-Ln-Manlius-NY-13104/188368374_zpid/</t>
+  </si>
+  <si>
+    <t>207 Wellington Road, Garden City South, NY 11530</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/207-Wellington-Rd-Garden-City-NY-11530/31184091_zpid/</t>
+  </si>
+  <si>
+    <t>14 W Pine Street, Islip, NY 11751</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/14-W-Pine-St-Islip-NY-11751/59638436_zpid/</t>
+  </si>
+  <si>
+    <t>24 Barbados Dr, Cheektowaga, NY 14227</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/24-Barbados-Dr-Cheektowaga-NY-14227/30302839_zpid/</t>
+  </si>
+  <si>
+    <t>293 Bellevue Avenue, Yonkers, NY 10703</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/293-Bellevue-Ave-Yonkers-NY-10703/32991008_zpid/</t>
+  </si>
+  <si>
+    <t>174 Villard Avenue, Hastings-On-Hudson, NY 10706</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/174-Villard-Ave-Hastings-On-Hudson-NY-10706/33022222_zpid/</t>
+  </si>
+  <si>
+    <t>45 Stonehouse Road, Somers, NY 10589</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/45-Stonehouse-Rd-Somers-NY-10589/33099718_zpid/</t>
+  </si>
+  <si>
+    <t>271 Forest Creek Ln, Grand Island, NY 14072</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/271-Forest-Creek-Ln-Grand-Island-NY-14072/58343380_zpid/</t>
+  </si>
+  <si>
+    <t>564 Marion Drive, East Meadow, NY 11554</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/564-Marion-Dr-East-Meadow-NY-11554/31345435_zpid/</t>
+  </si>
+  <si>
+    <t>301 Merrifield Avenue, Oceanside, NY 11572</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/301-Merrifield-Ave-Oceanside-NY-11572/31274795_zpid/</t>
+  </si>
+  <si>
+    <t>255 S 4th St, Lewiston, NY 14092</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/255-S-4th-St-Lewiston-NY-14092/60193723_zpid/</t>
+  </si>
+  <si>
+    <t>6585 Parkwood Dr, Lockport, NY 14094</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6585-Parkwood-Dr-Lockport-NY-14094/31470329_zpid/</t>
+  </si>
+  <si>
+    <t>136 Helen St, Cheektowaga, NY 14206</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/136-Helen-St-Cheektowaga-NY-14206/30298731_zpid/</t>
+  </si>
+  <si>
+    <t>11 Eleanor Lane, Plainview, NY 11803</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11-Eleanor-Ln-Plainview-NY-11803/31302834_zpid/</t>
+  </si>
+  <si>
+    <t>784 Long Island Avenue, Medford, NY 11763</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/784-Long-Island-Ave-Medford-NY-11763/59518423_zpid/</t>
+  </si>
+  <si>
+    <t>5220 Armor Duells Rd, Orchard Park, NY 14127</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5220-Armor-Duells-Rd-Orchard-Park-NY-14127/30374198_zpid/</t>
+  </si>
+  <si>
+    <t>1853 Baldwin Road, Yorktown Heights, NY 10598</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1853-Baldwin-Rd-Yorktown-Heights-NY-10598/58430464_zpid/</t>
+  </si>
+  <si>
+    <t>1021 Inner Dr, Rotterdam, NY 12303</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1021-Inner-Dr-Schenectady-NY-12303/32504765_zpid/</t>
+  </si>
+  <si>
+    <t>40 Guild Rd, Oak Hill, NY 12423</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/40-Guild-Rd-Oak-Hill-NY-12423/30499694_zpid/</t>
+  </si>
+  <si>
+    <t>3 Newcomb Drive, Loudonville, NY 12211</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3-Newcomb-Dr-Loudonville-NY-12211/29697050_zpid/</t>
+  </si>
+  <si>
+    <t>50 Blacksmith Dr, East Amherst, NY 14051</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/50-Blacksmith-Dr-East-Amherst-NY-14051/58342876_zpid/</t>
+  </si>
+  <si>
+    <t>34 Asbury St, Rochester, NY 14620</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/34-Asbury-St-Rochester-NY-14620/30889441_zpid/</t>
+  </si>
+  <si>
+    <t>6963 Granger Point Dr S, Naples, NY 14512</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6963-Granger-Point-Dr-S-Naples-NY-14512/440581080_zpid/</t>
+  </si>
+  <si>
+    <t>2688 New Scotland Road, Voorheesville, NY 12186</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2688-New-Scotland-Rd-Voorheesville-NY-12186/29714540_zpid/</t>
+  </si>
+  <si>
+    <t>11 Lisa Lane, New Windsor, NY 12553</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11-Lisa-Ln-New-Windsor-NY-12553/54938818_zpid/</t>
+  </si>
+  <si>
+    <t>57 Cliftwood Drive, Huntington, NY 11743</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/57-Cliftwood-Dr-Huntington-NY-11743/59340338_zpid/</t>
+  </si>
+  <si>
+    <t>3 Lark Lane, East Northport, NY 11731</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3-Lark-Ln-East-Northport-NY-11731/59579186_zpid/</t>
+  </si>
+  <si>
+    <t>37 Berkshire W Drive, Clifton Park, NY 12065</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/37-Berkshire-Dr-W-Clifton-Park-NY-12065/32416492_zpid/</t>
+  </si>
+  <si>
+    <t>1738 Crompond Road, Peekskill, NY 10566</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1738-Crompond-Rd-Peekskill-NY-10566/32969511_zpid/</t>
+  </si>
+  <si>
+    <t>109 Wilrose Lane, Troy, NY 12180</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/109-Wilrose-Ln-Troy-NY-12180/32243275_zpid/</t>
+  </si>
+  <si>
+    <t>11 Nancy Road, Brewster, NY 10509</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11-Nancy-Rd-Brewster-NY-10509/31931428_zpid/</t>
+  </si>
+  <si>
+    <t>37 N Vernon, Athens, NY 12015</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/37-N-Vernon-St-Athens-NY-12015/98127793_zpid/</t>
+  </si>
+  <si>
+    <t>65 Windemere Rd, Rochester, NY 14610</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/65-Windemere-Rd-Rochester-NY-14610/30890317_zpid/</t>
+  </si>
+  <si>
+    <t>915 State Route 208, Gardiner, NY 12525</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/915-State-Route-208-Gardiner-NY-12525/440265851_zpid/</t>
+  </si>
+  <si>
+    <t>91 Marvin Avenue, Uniondale, NY 11553</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/91-Marvin-Ave-Uniondale-NY-11553/31320291_zpid/</t>
+  </si>
+  <si>
+    <t>44 Homer Ave, Buffalo, NY 14216</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/44-Homer-Ave-Buffalo-NY-14216/30156770_zpid/</t>
+  </si>
+  <si>
+    <t>217 Ross Park, Syracuse, NY 13208</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/217-Ross-Park-Syracuse-NY-13208/31654655_zpid/</t>
+  </si>
+  <si>
+    <t>88 Caroline St, Albion, NY 14411</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/88-Caroline-St-Albion-NY-14411/31642197_zpid/</t>
+  </si>
+  <si>
+    <t>4154 Rancho Park Dr, Liverpool, NY 13090</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4154-Rancho-Park-Dr-Liverpool-NY-13090/31709468_zpid/</t>
+  </si>
+  <si>
+    <t>48224 State Highway 10, Delhi, NY 13753</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/48224-State-Highway-10-Delhi-NY-13753/30059951_zpid/</t>
+  </si>
+  <si>
+    <t>3 Belmonte Lane, Clifton Park, NY 12065</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3-Belmonte-Ln-Clifton-Park-NY-12065/32419794_zpid/</t>
+  </si>
+  <si>
+    <t>5 Tower Road, Hopewell Junction, NY 12533</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5-Tower-Rd-Hopewell-Junction-NY-12533/30088715_zpid/</t>
+  </si>
+  <si>
+    <t>2933 169th St, Flushing, NY 11358</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2933-169th-St-Flushing-NY-11358/32036351_zpid/</t>
+  </si>
+  <si>
+    <t>38 Cherry Tree Cir, Liverpool, NY 13090</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/38-Cherry-Tree-Cir-Liverpool-NY-13090/31714918_zpid/</t>
+  </si>
+  <si>
+    <t>14 Peachtree Ln, Pittsford, NY 14534</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/14-Peachtree-Ln-Pittsford-NY-14534/31020556_zpid/</t>
+  </si>
+  <si>
+    <t>68 Bent Oak Trl, Fairport, NY 14450</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/68-Bent-Oak-Trl-Fairport-NY-14450/31019870_zpid/</t>
+  </si>
+  <si>
+    <t>15 Oatka Pl, Scottsville, NY 14546</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/15-Oatka-Pl-Scottsville-NY-14546/31049542_zpid/</t>
+  </si>
+  <si>
+    <t>1130 N Glencove Rd, Syracuse, NY 13206</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1130-N-Glencove-Rd-Syracuse-NY-13206/31663985_zpid/</t>
+  </si>
+  <si>
+    <t>30 Falstaff Rd, Rochester, NY 14609</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/30-Falstaff-Rd-Rochester-NY-14609/30985178_zpid/</t>
+  </si>
+  <si>
+    <t>79-10 214th Street, Hollis Hills, NY 11364</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/79-10-214th-St-Oakland-Gardens-NY-11364/2060900384_zpid/</t>
+  </si>
+  <si>
+    <t>2385 Old Falls Blvd, Niagara Falls, NY 14304</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2385-Old-Falls-Blvd-Niagara-Falls-NY-14304/31485191_zpid/</t>
+  </si>
+  <si>
+    <t>1522 Dutch Broadway, Elmont, NY 11003</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1522-Dutch-Broadway-Elmont-NY-11003/31183098_zpid/</t>
+  </si>
+  <si>
+    <t>92 Lincoln Blvd, Buffalo, NY 14217</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/92-Lincoln-Blvd-Buffalo-NY-14217/30380374_zpid/</t>
+  </si>
+  <si>
+    <t>60 Tyrrell St, Staten Island, NY 10307</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/60-Tyrrell-St-Staten-Island-NY-10307/32376948_zpid/</t>
+  </si>
+  <si>
+    <t>5351 Cramer Rd, Canandaigua, NY 14424</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5351-Cramer-Rd-Canandaigua-NY-14424/31883703_zpid/</t>
+  </si>
+  <si>
+    <t>6 Angelo St, Geneva, NY 14456</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6-Angelo-St-Geneva-NY-14456/31876503_zpid/</t>
+  </si>
+  <si>
+    <t>22 Avenue D, Holbrook, NY 11741</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/22-Avenue-D-Holbrook-NY-11741/32667331_zpid/</t>
+  </si>
+  <si>
+    <t>28 19th St, Buffalo, NY 14213</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/28-19th-St-Buffalo-NY-14213/30182058_zpid/</t>
+  </si>
+  <si>
+    <t>16 Longview Road, South Salem, NY 10590</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/16-Longview-Rd-South-Salem-NY-10590/247837190_zpid/</t>
+  </si>
+  <si>
+    <t>1690 Gowans Rd, Angola, NY 14006</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1690-Gowans-Rd-Angola-NY-14006/30326677_zpid/</t>
+  </si>
+  <si>
+    <t>75 Hill Street, Wading River, NY 11792</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/75-Hill-St-E-Wading-River-NY-11792/32671130_zpid/</t>
+  </si>
+  <si>
+    <t>49 Fairview Road, Brewster, NY 10509</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/49-Fairview-Rd-Brewster-NY-10509/31930789_zpid/</t>
+  </si>
+  <si>
+    <t>91 Meadowlark Dr, Penfield, NY 14526</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/91-Meadowlark-Dr-Penfield-NY-14526/31005410_zpid/</t>
+  </si>
+  <si>
+    <t>34 Mcgarrah Road, Monroe, NY 10950</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/34-McGarrah-Rd-Monroe-NY-10950/66500975_zpid/</t>
+  </si>
+  <si>
+    <t>84 Willow Street, Beacon, NY 12508</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/84-W-Willow-St-Beacon-NY-12508/30079265_zpid/</t>
+  </si>
+  <si>
+    <t>104 Russell Avenue, Rhinebeck, NY 12572</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/104-Russell-Ave-Rhinebeck-NY-12572/2067116268_zpid/</t>
+  </si>
+  <si>
+    <t>5847 Reis Dr, Cicero, NY 13039</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5847-Reis-Dr-Cicero-NY-13039/31697959_zpid/</t>
+  </si>
+  <si>
+    <t>244 Weidner Avenue, Oceanside, NY 11572</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/244-Weidner-Ave-Oceanside-NY-11572/31275143_zpid/</t>
+  </si>
+  <si>
+    <t>34 Gilmore Drive, Stony Point, NY 10980</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/34-Gilmore-Dr-Stony-Pt-NY-10980/32398017_zpid/</t>
+  </si>
+  <si>
+    <t>511 Head Of Pond Rd, Water Mill, NY 11976</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/511-Head-Of-Pond-Rd-Water-Mill-NY-11976/32728763_zpid/</t>
+  </si>
+  <si>
+    <t>178 Wellington Ave, Buffalo, NY 14223</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/178-Wellington-Ave-Buffalo-NY-14223/30401033_zpid/</t>
+  </si>
+  <si>
+    <t>136 Elm Dr, Rochester, NY 14609</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/136-Elm-Dr-Rochester-NY-14609/30876718_zpid/</t>
+  </si>
+  <si>
+    <t>227 Country Club Road, Hopewell Junction, NY 12533</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/227-Country-Club-Rd-Hopewell-Junction-NY-12533/98673191_zpid/</t>
+  </si>
+  <si>
+    <t>61 Wedgewood Park, Rochester, NY 14616</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/61-Wedgewood-Park-Rochester-NY-14616/30945050_zpid/</t>
+  </si>
+  <si>
+    <t>197 Crandon Blvd, Cheektowaga, NY 14225</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/197-Crandon-Blvd-Cheektowaga-NY-14225/30290442_zpid/</t>
+  </si>
+  <si>
+    <t>14 E Saybrook Drive, Glenmont, NY 12077</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/14-E-Saybrook-Dr-Glenmont-NY-12077/29672705_zpid/</t>
+  </si>
+  <si>
+    <t>314 Willis Avenue, Hawthorne, NY 10532</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/314-Willis-Ave-Hawthorne-NY-10532/33059674_zpid/</t>
+  </si>
+  <si>
+    <t>6822 Madeline Ct, Brooklyn, NY 11220</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6822-Madeline-Ct-Brooklyn-NY-11220/30692074_zpid/</t>
+  </si>
+  <si>
+    <t>216 Dorman Rd, Binghamton, NY 13901</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/216-Dorman-Rd-Binghamton-NY-13901/29735301_zpid/</t>
+  </si>
+  <si>
+    <t>67 Jacobs Road, Westtown, NY 10998</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/67-Jacobs-Rd-Westtown-NY-10998/31823276_zpid/</t>
+  </si>
+  <si>
+    <t>91 Bouck St, Tonawanda, NY 14150</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/91-Bouck-St-Tonawanda-NY-14150/30225687_zpid/</t>
+  </si>
+  <si>
+    <t>21 Sparrow Street, Monroe, NY 10950</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/21-Sparrow-St-Monroe-NY-10950/31828227_zpid/</t>
+  </si>
+  <si>
+    <t>180 Adirondack Drive, Selden, NY 11784</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/180-Adirondack-Dr-Selden-NY-11784/59305809_zpid/</t>
+  </si>
+  <si>
+    <t>4 Jefferson Avenue, Bayville, NY 11709</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4-Jefferson-Ave-Bayville-NY-11709/31164910_zpid/</t>
+  </si>
+  <si>
+    <t>64 Lake Muskoday Road, Roscoe, NY 12736</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/64-Lake-Muskoday-Rd-Roscoe-NY-12776/32770134_zpid/</t>
+  </si>
+  <si>
+    <t>6519 Amy Ln, Lockport, NY 14094</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6519-Amy-Ln-Lockport-NY-14094/66489843_zpid/</t>
+  </si>
+  <si>
+    <t>276 S Boulevard, Nyack, NY 10960</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/276-South-Blvd-Nyack-NY-10960/32392443_zpid/</t>
+  </si>
+  <si>
+    <t>41 Juniper Road, Kings Park, NY 11754</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/41-Juniper-Rd-Kings-Park-NY-11754/32685787_zpid/</t>
+  </si>
+  <si>
+    <t>168 White Rabbit Trl, Rochester, NY 14612</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/168-White-Rabbit-Trl-Rochester-NY-14612/30929963_zpid/</t>
+  </si>
+  <si>
+    <t>162 Woodbine Road, East Hills, NY 11577</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/162-Woodbine-Rd-Roslyn-Heights-NY-11577/31087989_zpid/</t>
+  </si>
+  <si>
+    <t>StreetAddress</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,10 +1460,3130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576B33F1-2D4D-40FB-A11B-CC7666622A62}">
+  <dimension ref="A1:I172"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>399900</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>449000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2745000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>699000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>539900</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>540000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>550000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>579999</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>249900</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>799900</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>132000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>650000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>325000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1275000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>329000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>655000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>174900</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>775000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>629000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>425000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>679999</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>150000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>489000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>159000</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>848888</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>949000</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>549990</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2085000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>689900</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>599999</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>274900</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>225000</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>649990</v>
+      </c>
+      <c r="E34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>650000</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>371000</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>49900000</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>11</v>
+      </c>
+      <c r="I37">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>850000</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>699000</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>214900</v>
+      </c>
+      <c r="E40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>347900</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>579999</v>
+      </c>
+      <c r="E42" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>249900</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>319900</v>
+      </c>
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>899000</v>
+      </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>799000</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>549000</v>
+      </c>
+      <c r="E47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>205000</v>
+      </c>
+      <c r="E48" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>179999</v>
+      </c>
+      <c r="E49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>849999</v>
+      </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1250000</v>
+      </c>
+      <c r="E51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2750000</v>
+      </c>
+      <c r="E52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>199000</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>129900</v>
+      </c>
+      <c r="E54" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>599000</v>
+      </c>
+      <c r="E55" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>219900</v>
+      </c>
+      <c r="E56" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" t="s">
+        <v>115</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>374900</v>
+      </c>
+      <c r="E57" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>574999</v>
+      </c>
+      <c r="E58" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" t="s">
+        <v>119</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1299999</v>
+      </c>
+      <c r="E59" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>649990</v>
+      </c>
+      <c r="E60" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>349999</v>
+      </c>
+      <c r="E61" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>249999</v>
+      </c>
+      <c r="E62" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>199900</v>
+      </c>
+      <c r="E63" t="s">
+        <v>128</v>
+      </c>
+      <c r="F63" t="s">
+        <v>129</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>575000</v>
+      </c>
+      <c r="E64" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>289900</v>
+      </c>
+      <c r="E65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>280000</v>
+      </c>
+      <c r="E66" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66" t="s">
+        <v>135</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>289900</v>
+      </c>
+      <c r="E67" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>503500</v>
+      </c>
+      <c r="E68" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>379900</v>
+      </c>
+      <c r="E69" t="s">
+        <v>140</v>
+      </c>
+      <c r="F69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>219000</v>
+      </c>
+      <c r="E70" t="s">
+        <v>142</v>
+      </c>
+      <c r="F70" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>80000</v>
+      </c>
+      <c r="E71" t="s">
+        <v>144</v>
+      </c>
+      <c r="F71" t="s">
+        <v>145</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>445000</v>
+      </c>
+      <c r="E72" t="s">
+        <v>146</v>
+      </c>
+      <c r="F72" t="s">
+        <v>147</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1759000</v>
+      </c>
+      <c r="E73" t="s">
+        <v>148</v>
+      </c>
+      <c r="F73" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>850000</v>
+      </c>
+      <c r="E74" t="s">
+        <v>150</v>
+      </c>
+      <c r="F74" t="s">
+        <v>151</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>230000</v>
+      </c>
+      <c r="E75" t="s">
+        <v>152</v>
+      </c>
+      <c r="F75" t="s">
+        <v>153</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>549444</v>
+      </c>
+      <c r="E76" t="s">
+        <v>154</v>
+      </c>
+      <c r="F76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>290000</v>
+      </c>
+      <c r="E77" t="s">
+        <v>156</v>
+      </c>
+      <c r="F77" t="s">
+        <v>157</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2688000</v>
+      </c>
+      <c r="E78" t="s">
+        <v>158</v>
+      </c>
+      <c r="F78" t="s">
+        <v>159</v>
+      </c>
+      <c r="G78">
+        <v>9</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>750000</v>
+      </c>
+      <c r="E79" t="s">
+        <v>160</v>
+      </c>
+      <c r="F79" t="s">
+        <v>161</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+      <c r="I79">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>424900</v>
+      </c>
+      <c r="E80" t="s">
+        <v>162</v>
+      </c>
+      <c r="F80" t="s">
+        <v>163</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>599000</v>
+      </c>
+      <c r="E81" t="s">
+        <v>164</v>
+      </c>
+      <c r="F81" t="s">
+        <v>165</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>699000</v>
+      </c>
+      <c r="E82" t="s">
+        <v>166</v>
+      </c>
+      <c r="F82" t="s">
+        <v>167</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>729000</v>
+      </c>
+      <c r="E83" t="s">
+        <v>168</v>
+      </c>
+      <c r="F83" t="s">
+        <v>169</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>829000</v>
+      </c>
+      <c r="E84" t="s">
+        <v>170</v>
+      </c>
+      <c r="F84" t="s">
+        <v>171</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>589000</v>
+      </c>
+      <c r="E85" t="s">
+        <v>172</v>
+      </c>
+      <c r="F85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>269900</v>
+      </c>
+      <c r="E86" t="s">
+        <v>174</v>
+      </c>
+      <c r="F86" t="s">
+        <v>175</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>699000</v>
+      </c>
+      <c r="E87" t="s">
+        <v>176</v>
+      </c>
+      <c r="F87" t="s">
+        <v>177</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>999000</v>
+      </c>
+      <c r="E88" t="s">
+        <v>178</v>
+      </c>
+      <c r="F88" t="s">
+        <v>179</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>750000</v>
+      </c>
+      <c r="E89" t="s">
+        <v>180</v>
+      </c>
+      <c r="F89" t="s">
+        <v>181</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>799900</v>
+      </c>
+      <c r="E90" t="s">
+        <v>182</v>
+      </c>
+      <c r="F90" t="s">
+        <v>183</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>949000</v>
+      </c>
+      <c r="E91" t="s">
+        <v>184</v>
+      </c>
+      <c r="F91" t="s">
+        <v>185</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>598000</v>
+      </c>
+      <c r="E92" t="s">
+        <v>186</v>
+      </c>
+      <c r="F92" t="s">
+        <v>187</v>
+      </c>
+      <c r="G92">
+        <v>4</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>424900</v>
+      </c>
+      <c r="E93" t="s">
+        <v>188</v>
+      </c>
+      <c r="F93" t="s">
+        <v>189</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>219900</v>
+      </c>
+      <c r="E94" t="s">
+        <v>190</v>
+      </c>
+      <c r="F94" t="s">
+        <v>191</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>229900</v>
+      </c>
+      <c r="E95" t="s">
+        <v>192</v>
+      </c>
+      <c r="F95" t="s">
+        <v>193</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>849000</v>
+      </c>
+      <c r="E96" t="s">
+        <v>194</v>
+      </c>
+      <c r="F96" t="s">
+        <v>195</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>549000</v>
+      </c>
+      <c r="E97" t="s">
+        <v>196</v>
+      </c>
+      <c r="F97" t="s">
+        <v>197</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>289900</v>
+      </c>
+      <c r="E98" t="s">
+        <v>198</v>
+      </c>
+      <c r="F98" t="s">
+        <v>199</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>900000</v>
+      </c>
+      <c r="E99" t="s">
+        <v>200</v>
+      </c>
+      <c r="F99" t="s">
+        <v>201</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>229900</v>
+      </c>
+      <c r="E100" t="s">
+        <v>202</v>
+      </c>
+      <c r="F100" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>399000</v>
+      </c>
+      <c r="E101" t="s">
+        <v>204</v>
+      </c>
+      <c r="F101" t="s">
+        <v>205</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>274900</v>
+      </c>
+      <c r="E102" t="s">
+        <v>206</v>
+      </c>
+      <c r="F102" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>414900</v>
+      </c>
+      <c r="E103" t="s">
+        <v>208</v>
+      </c>
+      <c r="F103" t="s">
+        <v>209</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>179900</v>
+      </c>
+      <c r="E104" t="s">
+        <v>210</v>
+      </c>
+      <c r="F104" t="s">
+        <v>211</v>
+      </c>
+      <c r="G104">
+        <v>4</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1299000</v>
+      </c>
+      <c r="E105" t="s">
+        <v>212</v>
+      </c>
+      <c r="F105" t="s">
+        <v>213</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>279900</v>
+      </c>
+      <c r="E106" t="s">
+        <v>214</v>
+      </c>
+      <c r="F106" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>649000</v>
+      </c>
+      <c r="E107" t="s">
+        <v>216</v>
+      </c>
+      <c r="F107" t="s">
+        <v>217</v>
+      </c>
+      <c r="G107">
+        <v>4</v>
+      </c>
+      <c r="H107">
+        <v>4</v>
+      </c>
+      <c r="I107">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>799999</v>
+      </c>
+      <c r="E108" t="s">
+        <v>218</v>
+      </c>
+      <c r="F108" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>799000</v>
+      </c>
+      <c r="E109" t="s">
+        <v>220</v>
+      </c>
+      <c r="F109" t="s">
+        <v>221</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>574500</v>
+      </c>
+      <c r="E110" t="s">
+        <v>222</v>
+      </c>
+      <c r="F110" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>350000</v>
+      </c>
+      <c r="E111" t="s">
+        <v>224</v>
+      </c>
+      <c r="F111" t="s">
+        <v>225</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>665000</v>
+      </c>
+      <c r="E112" t="s">
+        <v>226</v>
+      </c>
+      <c r="F112" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>459900</v>
+      </c>
+      <c r="E113" t="s">
+        <v>228</v>
+      </c>
+      <c r="F113" t="s">
+        <v>229</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>385000</v>
+      </c>
+      <c r="E114" t="s">
+        <v>230</v>
+      </c>
+      <c r="F114" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>494900</v>
+      </c>
+      <c r="E115" t="s">
+        <v>232</v>
+      </c>
+      <c r="F115" t="s">
+        <v>233</v>
+      </c>
+      <c r="G115">
+        <v>4</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>525000</v>
+      </c>
+      <c r="E116" t="s">
+        <v>234</v>
+      </c>
+      <c r="F116" t="s">
+        <v>235</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>629000</v>
+      </c>
+      <c r="E117" t="s">
+        <v>236</v>
+      </c>
+      <c r="F117" t="s">
+        <v>237</v>
+      </c>
+      <c r="G117">
+        <v>5</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>192000</v>
+      </c>
+      <c r="E118" t="s">
+        <v>238</v>
+      </c>
+      <c r="F118" t="s">
+        <v>239</v>
+      </c>
+      <c r="G118">
+        <v>4</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>199900</v>
+      </c>
+      <c r="E119" t="s">
+        <v>240</v>
+      </c>
+      <c r="F119" t="s">
+        <v>241</v>
+      </c>
+      <c r="G119">
+        <v>5</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>164900</v>
+      </c>
+      <c r="E120" t="s">
+        <v>242</v>
+      </c>
+      <c r="F120" t="s">
+        <v>243</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>255000</v>
+      </c>
+      <c r="E121" t="s">
+        <v>244</v>
+      </c>
+      <c r="F121" t="s">
+        <v>245</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>198000</v>
+      </c>
+      <c r="E122" t="s">
+        <v>246</v>
+      </c>
+      <c r="F122" t="s">
+        <v>247</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>485000</v>
+      </c>
+      <c r="E123" t="s">
+        <v>248</v>
+      </c>
+      <c r="F123" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>695000</v>
+      </c>
+      <c r="E124" t="s">
+        <v>250</v>
+      </c>
+      <c r="F124" t="s">
+        <v>251</v>
+      </c>
+      <c r="G124">
+        <v>4</v>
+      </c>
+      <c r="H124">
+        <v>4</v>
+      </c>
+      <c r="I124">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1098000</v>
+      </c>
+      <c r="E125" t="s">
+        <v>252</v>
+      </c>
+      <c r="F125" t="s">
+        <v>253</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+      <c r="H125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>315000</v>
+      </c>
+      <c r="E126" t="s">
+        <v>254</v>
+      </c>
+      <c r="F126" t="s">
+        <v>255</v>
+      </c>
+      <c r="G126">
+        <v>4</v>
+      </c>
+      <c r="H126">
+        <v>3</v>
+      </c>
+      <c r="I126">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>299900</v>
+      </c>
+      <c r="E127" t="s">
+        <v>256</v>
+      </c>
+      <c r="F127" t="s">
+        <v>257</v>
+      </c>
+      <c r="G127">
+        <v>4</v>
+      </c>
+      <c r="H127">
+        <v>3</v>
+      </c>
+      <c r="I127">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>369900</v>
+      </c>
+      <c r="E128" t="s">
+        <v>258</v>
+      </c>
+      <c r="F128" t="s">
+        <v>259</v>
+      </c>
+      <c r="G128">
+        <v>4</v>
+      </c>
+      <c r="H128">
+        <v>3</v>
+      </c>
+      <c r="I128">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>169900</v>
+      </c>
+      <c r="E129" t="s">
+        <v>260</v>
+      </c>
+      <c r="F129" t="s">
+        <v>261</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>199900</v>
+      </c>
+      <c r="E130" t="s">
+        <v>262</v>
+      </c>
+      <c r="F130" t="s">
+        <v>263</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>179900</v>
+      </c>
+      <c r="E131" t="s">
+        <v>264</v>
+      </c>
+      <c r="F131" t="s">
+        <v>265</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1560000</v>
+      </c>
+      <c r="E132" t="s">
+        <v>266</v>
+      </c>
+      <c r="F132" t="s">
+        <v>267</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+      <c r="H132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>364900</v>
+      </c>
+      <c r="E133" t="s">
+        <v>268</v>
+      </c>
+      <c r="F133" t="s">
+        <v>269</v>
+      </c>
+      <c r="G133">
+        <v>5</v>
+      </c>
+      <c r="H133">
+        <v>3</v>
+      </c>
+      <c r="I133">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>500000</v>
+      </c>
+      <c r="E134" t="s">
+        <v>270</v>
+      </c>
+      <c r="F134" t="s">
+        <v>271</v>
+      </c>
+      <c r="G134">
+        <v>4</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>324900</v>
+      </c>
+      <c r="E135" t="s">
+        <v>272</v>
+      </c>
+      <c r="F135" t="s">
+        <v>273</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>724900</v>
+      </c>
+      <c r="E136" t="s">
+        <v>274</v>
+      </c>
+      <c r="F136" t="s">
+        <v>275</v>
+      </c>
+      <c r="G136">
+        <v>4</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>339900</v>
+      </c>
+      <c r="E137" t="s">
+        <v>276</v>
+      </c>
+      <c r="F137" t="s">
+        <v>277</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>179900</v>
+      </c>
+      <c r="E138" t="s">
+        <v>278</v>
+      </c>
+      <c r="F138" t="s">
+        <v>279</v>
+      </c>
+      <c r="G138">
+        <v>3</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>599999</v>
+      </c>
+      <c r="E139" t="s">
+        <v>280</v>
+      </c>
+      <c r="F139" t="s">
+        <v>281</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>129900</v>
+      </c>
+      <c r="E140" t="s">
+        <v>282</v>
+      </c>
+      <c r="F140" t="s">
+        <v>283</v>
+      </c>
+      <c r="G140">
+        <v>3</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>995000</v>
+      </c>
+      <c r="E141" t="s">
+        <v>284</v>
+      </c>
+      <c r="F141" t="s">
+        <v>285</v>
+      </c>
+      <c r="G141">
+        <v>4</v>
+      </c>
+      <c r="H141">
+        <v>3</v>
+      </c>
+      <c r="I141">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>389900</v>
+      </c>
+      <c r="E142" t="s">
+        <v>286</v>
+      </c>
+      <c r="F142" t="s">
+        <v>287</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>499000</v>
+      </c>
+      <c r="E143" t="s">
+        <v>288</v>
+      </c>
+      <c r="F143" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>375000</v>
+      </c>
+      <c r="E144" t="s">
+        <v>290</v>
+      </c>
+      <c r="F144" t="s">
+        <v>291</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>219900</v>
+      </c>
+      <c r="E145" t="s">
+        <v>292</v>
+      </c>
+      <c r="F145" t="s">
+        <v>293</v>
+      </c>
+      <c r="G145">
+        <v>3</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>650000</v>
+      </c>
+      <c r="E146" t="s">
+        <v>294</v>
+      </c>
+      <c r="F146" t="s">
+        <v>295</v>
+      </c>
+      <c r="G146">
+        <v>4</v>
+      </c>
+      <c r="H146">
+        <v>4</v>
+      </c>
+      <c r="I146">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>729900</v>
+      </c>
+      <c r="E147" t="s">
+        <v>296</v>
+      </c>
+      <c r="F147" t="s">
+        <v>297</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>649000</v>
+      </c>
+      <c r="E148" t="s">
+        <v>298</v>
+      </c>
+      <c r="F148" t="s">
+        <v>299</v>
+      </c>
+      <c r="G148">
+        <v>2</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>179000</v>
+      </c>
+      <c r="E149" t="s">
+        <v>300</v>
+      </c>
+      <c r="F149" t="s">
+        <v>301</v>
+      </c>
+      <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>699000</v>
+      </c>
+      <c r="E150" t="s">
+        <v>302</v>
+      </c>
+      <c r="F150" t="s">
+        <v>303</v>
+      </c>
+      <c r="G150">
+        <v>4</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>599000</v>
+      </c>
+      <c r="E151" t="s">
+        <v>304</v>
+      </c>
+      <c r="F151" t="s">
+        <v>305</v>
+      </c>
+      <c r="G151">
+        <v>4</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>4525000</v>
+      </c>
+      <c r="E152" t="s">
+        <v>306</v>
+      </c>
+      <c r="F152" t="s">
+        <v>307</v>
+      </c>
+      <c r="G152">
+        <v>5</v>
+      </c>
+      <c r="H152">
+        <v>5</v>
+      </c>
+      <c r="I152">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>199900</v>
+      </c>
+      <c r="E153" t="s">
+        <v>308</v>
+      </c>
+      <c r="F153" t="s">
+        <v>309</v>
+      </c>
+      <c r="G153">
+        <v>2</v>
+      </c>
+      <c r="H153">
+        <v>2</v>
+      </c>
+      <c r="I153">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>295777</v>
+      </c>
+      <c r="E154" t="s">
+        <v>310</v>
+      </c>
+      <c r="F154" t="s">
+        <v>311</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+      <c r="I154">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>734999</v>
+      </c>
+      <c r="E155" t="s">
+        <v>312</v>
+      </c>
+      <c r="F155" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>169900</v>
+      </c>
+      <c r="E156" t="s">
+        <v>314</v>
+      </c>
+      <c r="F156" t="s">
+        <v>315</v>
+      </c>
+      <c r="G156">
+        <v>2</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>175000</v>
+      </c>
+      <c r="E157" t="s">
+        <v>316</v>
+      </c>
+      <c r="F157" t="s">
+        <v>317</v>
+      </c>
+      <c r="G157">
+        <v>3</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>495000</v>
+      </c>
+      <c r="E158" t="s">
+        <v>318</v>
+      </c>
+      <c r="F158" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>685000</v>
+      </c>
+      <c r="E159" t="s">
+        <v>320</v>
+      </c>
+      <c r="F159" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1150000</v>
+      </c>
+      <c r="E160" t="s">
+        <v>322</v>
+      </c>
+      <c r="F160" t="s">
+        <v>323</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+      <c r="H160">
+        <v>2</v>
+      </c>
+      <c r="I160">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>144900</v>
+      </c>
+      <c r="E161" t="s">
+        <v>324</v>
+      </c>
+      <c r="F161" t="s">
+        <v>325</v>
+      </c>
+      <c r="G161">
+        <v>2</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>225000</v>
+      </c>
+      <c r="E162" t="s">
+        <v>326</v>
+      </c>
+      <c r="F162" t="s">
+        <v>327</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>169900</v>
+      </c>
+      <c r="E163" t="s">
+        <v>328</v>
+      </c>
+      <c r="F163" t="s">
+        <v>329</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>499000</v>
+      </c>
+      <c r="E164" t="s">
+        <v>330</v>
+      </c>
+      <c r="F164" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>420000</v>
+      </c>
+      <c r="E165" t="s">
+        <v>332</v>
+      </c>
+      <c r="F165" t="s">
+        <v>333</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1149000</v>
+      </c>
+      <c r="E166" t="s">
+        <v>334</v>
+      </c>
+      <c r="F166" t="s">
+        <v>335</v>
+      </c>
+      <c r="G166">
+        <v>4</v>
+      </c>
+      <c r="H166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>459000</v>
+      </c>
+      <c r="E167" t="s">
+        <v>336</v>
+      </c>
+      <c r="F167" t="s">
+        <v>337</v>
+      </c>
+      <c r="G167">
+        <v>2</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>319900</v>
+      </c>
+      <c r="E168" t="s">
+        <v>338</v>
+      </c>
+      <c r="F168" t="s">
+        <v>339</v>
+      </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
+      <c r="H168">
+        <v>3</v>
+      </c>
+      <c r="I168">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>995000</v>
+      </c>
+      <c r="E169" t="s">
+        <v>340</v>
+      </c>
+      <c r="F169" t="s">
+        <v>341</v>
+      </c>
+      <c r="G169">
+        <v>4</v>
+      </c>
+      <c r="H169">
+        <v>3</v>
+      </c>
+      <c r="I169">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>799000</v>
+      </c>
+      <c r="E170" t="s">
+        <v>342</v>
+      </c>
+      <c r="F170" t="s">
+        <v>343</v>
+      </c>
+      <c r="G170">
+        <v>4</v>
+      </c>
+      <c r="H170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>274900</v>
+      </c>
+      <c r="E171" t="s">
+        <v>344</v>
+      </c>
+      <c r="F171" t="s">
+        <v>345</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+      <c r="H171">
+        <v>3</v>
+      </c>
+      <c r="I171">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1350000</v>
+      </c>
+      <c r="E172" t="s">
+        <v>346</v>
+      </c>
+      <c r="F172" t="s">
+        <v>347</v>
+      </c>
+      <c r="G172">
+        <v>3</v>
+      </c>
+      <c r="H172">
+        <v>3</v>
+      </c>
+      <c r="I172">
+        <v>2201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D528B2-AC56-493E-A7C3-79882AFBE755}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/7robots/RealStateScraping/Scraping/HouseInformation.xlsx
+++ b/7robots/RealStateScraping/Scraping/HouseInformation.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\uipath\7robots\RealStateScraping\Scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B97591-8E02-432A-A5DE-F0BC6D44BFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A017C71C-42AC-4538-9FA5-27B26B7CF9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{9F991302-CBD0-40F1-945A-0530FE5E1615}"/>
   </bookViews>
   <sheets>
     <sheet name="BOSTON" sheetId="9" r:id="rId1"/>
-    <sheet name="NEW YORK" sheetId="10" r:id="rId2"/>
+    <sheet name="NEW YORK" sheetId="11" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="750">
   <si>
     <t>Price</t>
   </si>
@@ -1246,9 +1246,6 @@
     <t>https://www.zillow.com/homedetails/313-Sheldon-Ave-Staten-Island-NY-10312/32365050_zpid/</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/189-Ridgewood-Ave-Staten-Island-NY-10312/32353776_zpid/</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/321-Glen-Ave-Staten-Island-NY-10301/32273411_zpid/</t>
   </si>
   <si>
@@ -1264,9 +1261,6 @@
     <t>https://www.zillow.com/homedetails/41-Coursen-Pl-Staten-Island-NY-10304/32285210_zpid/</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/85-13-60th-Ave-Middle-Village-NY-11379/395486415_zpid/</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/86-22-261st-St-Glen-Oaks-NY-11004/339979373_zpid/</t>
   </si>
   <si>
@@ -1291,9 +1285,6 @@
     <t>https://www.zillow.com/homedetails/24927-88th-Rd-Bellerose-NY-11426/32101749_zpid/</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/7215-Kessel-St-Flushing-NY-11375/32004910_zpid/</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/38-E-76th-St-New-York-NY-10021/350519309_zpid/</t>
   </si>
   <si>
@@ -1318,9 +1309,6 @@
     <t>https://www.zillow.com/homedetails/400-E-236th-St-Bronx-NY-10470/145585587_zpid/</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/66-Evelyn-Pl-Staten-Island-NY-10305/32319277_zpid/</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/10032-199th-St-Jamaica-NY-11423/32154208_zpid/</t>
   </si>
   <si>
@@ -1345,9 +1333,6 @@
     <t>https://www.zillow.com/homedetails/10457-Atlantic-Ave-Jamaica-NY-11418/32119259_zpid/</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/78-13-79th-St-Ridgewood-NY-11385/2059102804_zpid/</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/83-49-250th-St-Bellerose-NY-11426/2056712430_zpid/</t>
   </si>
   <si>
@@ -1372,9 +1357,6 @@
     <t>https://www.zillow.com/homedetails/7841-74th-St-Glendale-NY-11385/32018120_zpid/</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/287-Dickie-Ave-Staten-Island-NY-10314/32283055_zpid/</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/69-02-69th-St-Ridgewood-NY-11385/402095994_zpid/</t>
   </si>
   <si>
@@ -1399,9 +1381,6 @@
     <t>https://www.zillow.com/homedetails/312-Madison-St-Brooklyn-NY-11216/30609573_zpid/</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/595-Glenmore-Ave-Brooklyn-NY-11207/30638650_zpid/</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/25914-61st-Ave-Flushing-NY-11362/32097800_zpid/</t>
   </si>
   <si>
@@ -1426,9 +1405,6 @@
     <t>https://www.zillow.com/homedetails/1731-E-37th-St-Brooklyn-NY-11234/30757748_zpid/</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/3061-Scenic-Pl-Bronx-NY-10463/29851879_zpid/</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/9721-Eckford-Ave-Jamaica-NY-11417/32170597_zpid/</t>
   </si>
   <si>
@@ -1453,9 +1429,6 @@
     <t>https://www.zillow.com/homedetails/82-19-242nd-St-Bellerose-NY-11426/2060635553_zpid/</t>
   </si>
   <si>
-    <t>https://www.zillow.com/homedetails/603A-20th-St-Brooklyn-NY-11218/30580554_zpid/</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/444-Underhill-Ave-Bronx-NY-10473/83179197_zpid/</t>
   </si>
   <si>
@@ -1750,106 +1723,571 @@
     <t>https://www.zillow.com/homedetails/444-Prospect-Ave-Brooklyn-NY-11215/30579824_zpid/</t>
   </si>
   <si>
-    <t>Staten Island</t>
-  </si>
-  <si>
-    <t>Brooklyn</t>
-  </si>
-  <si>
-    <t>Flushing</t>
-  </si>
-  <si>
-    <t>Middle Village</t>
-  </si>
-  <si>
-    <t>Glen Oaks</t>
-  </si>
-  <si>
-    <t>Bronx</t>
-  </si>
-  <si>
-    <t>Forest Hills</t>
-  </si>
-  <si>
-    <t>Bellerose</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Queens Village</t>
-  </si>
-  <si>
-    <t>Richmond Hill North</t>
-  </si>
-  <si>
-    <t>Hollis</t>
-  </si>
-  <si>
-    <t>Laurelton</t>
-  </si>
-  <si>
-    <t>Malba</t>
-  </si>
-  <si>
-    <t>Howard Beach</t>
-  </si>
-  <si>
-    <t>East Elmhurst</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Glendale</t>
-  </si>
-  <si>
-    <t>Saint Albans</t>
-  </si>
-  <si>
-    <t>Ridgewood</t>
-  </si>
-  <si>
-    <t>Little Neck</t>
-  </si>
-  <si>
-    <t>Bayside</t>
-  </si>
-  <si>
-    <t>Ozone Park</t>
-  </si>
-  <si>
-    <t>Woodhaven</t>
-  </si>
-  <si>
-    <t>Whitestone</t>
-  </si>
-  <si>
-    <t>Ditmas Park</t>
-  </si>
-  <si>
-    <t>Douglaston</t>
-  </si>
-  <si>
-    <t>New Hyde Park</t>
-  </si>
-  <si>
-    <t>Kew Gardens</t>
-  </si>
-  <si>
-    <t>Briarwood</t>
-  </si>
-  <si>
-    <t>Jamaica Estates</t>
-  </si>
-  <si>
-    <t>Rosedale</t>
-  </si>
-  <si>
-    <t>Fresh Meadows</t>
-  </si>
-  <si>
-    <t>Broad Channel</t>
+    <t>143 Lander Ave, Staten Island, NY 10314</t>
+  </si>
+  <si>
+    <t>104 18th St #M, Brooklyn, NY 11232</t>
+  </si>
+  <si>
+    <t>36-36 167th Street, Flushing, NY 11358</t>
+  </si>
+  <si>
+    <t>135 Beachview Ave, Staten Island, NY 10306</t>
+  </si>
+  <si>
+    <t>449 E 34th St, Brooklyn, NY 11203</t>
+  </si>
+  <si>
+    <t>219 Freedom Ave, Staten Island, NY 10314</t>
+  </si>
+  <si>
+    <t>1171 79th St, Brooklyn, NY 11228</t>
+  </si>
+  <si>
+    <t>20 Kermit Ave, Staten Island, NY 10305</t>
+  </si>
+  <si>
+    <t>313 Sheldon Avenue, Staten Island, NY 10312</t>
+  </si>
+  <si>
+    <t>321 Glen Ave, Staten Island, NY 10301</t>
+  </si>
+  <si>
+    <t>84 Kenilworth, Staten Island, NY 10312</t>
+  </si>
+  <si>
+    <t>8 Satterlee St, Staten Island, NY 10307</t>
+  </si>
+  <si>
+    <t>1026 117th St, Flushing, NY 11356</t>
+  </si>
+  <si>
+    <t>158 New Dorp Plz, Staten Island, NY 10306</t>
+  </si>
+  <si>
+    <t>77 Ardsley St, Staten Island, NY 10306</t>
+  </si>
+  <si>
+    <t>148 Woehrle Avenue, Staten Island, NY 10312</t>
+  </si>
+  <si>
+    <t>41 Coursen Pl, Staten Island, NY 10304</t>
+  </si>
+  <si>
+    <t>2933 169th St, Flushing, NY 11358</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2933-169th-St-Flushing-NY-11358/32036351_zpid/</t>
+  </si>
+  <si>
+    <t>86-22 261st Street, Glen Oaks, NY 11004</t>
+  </si>
+  <si>
+    <t>1406 Mac Donough Place, Bronx, NY 10465</t>
+  </si>
+  <si>
+    <t>71 Maple St, Brooklyn, NY 11225</t>
+  </si>
+  <si>
+    <t>108-23 Union, Forest Hills, NY 11375</t>
+  </si>
+  <si>
+    <t>3494 Cannon Place, Bronx, NY 10463</t>
+  </si>
+  <si>
+    <t>2200 Schenectady Ave, Brooklyn, NY 11234</t>
+  </si>
+  <si>
+    <t>2809 Wickham Ave, Bronx, NY 10469</t>
+  </si>
+  <si>
+    <t>249-27 88th Road, Bellerose, NY 11426</t>
+  </si>
+  <si>
+    <t>265 Berriman St, Brooklyn, NY 11208</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/265-Berriman-St-Brooklyn-NY-11208/30639802_zpid/</t>
+  </si>
+  <si>
+    <t>38 E 76th St, New York, NY 10021</t>
+  </si>
+  <si>
+    <t>222-18 100th Avenue, Queens Village, NY 11429</t>
+  </si>
+  <si>
+    <t>127 Blythe Pl, Staten Island, NY 10306</t>
+  </si>
+  <si>
+    <t>38 Monroe Pl, Brooklyn, NY 11201</t>
+  </si>
+  <si>
+    <t>85-26 115th Street, Richmond Hill North, NY 11418</t>
+  </si>
+  <si>
+    <t>27 Metcalfe St, Staten Island, NY 10304</t>
+  </si>
+  <si>
+    <t>209-31 112th Ave, Queens Village, NY 11429</t>
+  </si>
+  <si>
+    <t>400 East 236th Street, Bronx, NY 10470</t>
+  </si>
+  <si>
+    <t>134 Montreal Ave, Staten Island, NY 10306</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/134-Montreal-Ave-Staten-Island-NY-10306/32343622_zpid/</t>
+  </si>
+  <si>
+    <t>100-32 199th Street, Hollis, NY 11423</t>
+  </si>
+  <si>
+    <t>137-23 Francis Lewis Boulevard, Laurelton, NY 11413</t>
+  </si>
+  <si>
+    <t>117 Malba Drive, Malba, NY 11357</t>
+  </si>
+  <si>
+    <t>97-17 161st Ave, Howard Beach, NY 11414</t>
+  </si>
+  <si>
+    <t>6151 82nd St, Flushing, NY 11379</t>
+  </si>
+  <si>
+    <t>19-64 76th St, East Elmhurst, NY 11370</t>
+  </si>
+  <si>
+    <t>379 Monroe St, Brooklyn, NY 11221</t>
+  </si>
+  <si>
+    <t>104-57 Atlantic Avenue, Jamaica, NY 11418</t>
+  </si>
+  <si>
+    <t>688 Sheldon Ave, Staten Island, NY 10312</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/688-Sheldon-Ave-Staten-Island-NY-10312/32369063_zpid/</t>
+  </si>
+  <si>
+    <t>83-49 250th St, Bellerose, NY 11426</t>
+  </si>
+  <si>
+    <t>15806 85th St, Jamaica, NY 11414</t>
+  </si>
+  <si>
+    <t>541 Hollywood Ave, Bronx, NY 10465</t>
+  </si>
+  <si>
+    <t>116-19 196 Street, Saint Albans, NY 11412</t>
+  </si>
+  <si>
+    <t>79 Margaret St, Staten Island, NY 10308</t>
+  </si>
+  <si>
+    <t>322 Winchester Ave, Staten Island, NY 10312</t>
+  </si>
+  <si>
+    <t>10967 203rd St, Jamaica, NY 11412</t>
+  </si>
+  <si>
+    <t>78-41 74th Street, Glendale, NY 11385</t>
+  </si>
+  <si>
+    <t>15 Eugene Pl, Staten Island, NY 10312</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/15-Eugene-Pl-Staten-Island-NY-10312/32367126_zpid/</t>
+  </si>
+  <si>
+    <t>69-02 69th Street, Ridgewood, NY 11385</t>
+  </si>
+  <si>
+    <t>4351 Bruner Avenue, Bronx, NY 10466</t>
+  </si>
+  <si>
+    <t>8461 127th St, Jamaica, NY 11415</t>
+  </si>
+  <si>
+    <t>4137 56th St, Flushing, NY 11377</t>
+  </si>
+  <si>
+    <t>863 Calhoun Avenue, Bronx, NY 10465</t>
+  </si>
+  <si>
+    <t>153 Hett Ave, Staten Island, NY 10306</t>
+  </si>
+  <si>
+    <t>179 Lamport Blvd, Staten Island, NY 10305</t>
+  </si>
+  <si>
+    <t>312 Madison St, Brooklyn, NY 11216</t>
+  </si>
+  <si>
+    <t>130-23 Lefferts Boulevard, South Ozone Park, NY 11420</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/13023-Lefferts-Blvd-Jamaica-NY-11420/32175648_zpid/</t>
+  </si>
+  <si>
+    <t>259-14 61st Avenue, Little Neck, NY 11362</t>
+  </si>
+  <si>
+    <t>11 E 74th St, New York, NY 10021</t>
+  </si>
+  <si>
+    <t>210A 30th St, Brooklyn, NY 11232</t>
+  </si>
+  <si>
+    <t>64-27 213th Street, Bayside, NY 11364</t>
+  </si>
+  <si>
+    <t>16324 99th St, Howard Beach, NY 11414</t>
+  </si>
+  <si>
+    <t>33-01 149th Place, Flushing, NY 11354</t>
+  </si>
+  <si>
+    <t>543 E 48th St, Brooklyn, NY 11203</t>
+  </si>
+  <si>
+    <t>1731 E 37th St, Brooklyn, NY 11234</t>
+  </si>
+  <si>
+    <t>4 Wadsworth Ave, Staten Island, NY 10305</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4-Wadsworth-Ave-Staten-Island-NY-10305/32322628_zpid/</t>
+  </si>
+  <si>
+    <t>97-21 Eckford Avenue, Ozone Park, NY 11417</t>
+  </si>
+  <si>
+    <t>8415 24th Ave, Brooklyn, NY 11214</t>
+  </si>
+  <si>
+    <t>4733 215th St, Flushing, NY 11361</t>
+  </si>
+  <si>
+    <t>1768 Troy Ave, Brooklyn, NY 11234</t>
+  </si>
+  <si>
+    <t>8 Ellsworth Pl, Staten Island, NY 10314</t>
+  </si>
+  <si>
+    <t>2023 Kimball St, Brooklyn, NY 11234</t>
+  </si>
+  <si>
+    <t>220 Tennyson Dr, Staten Island, NY 10308</t>
+  </si>
+  <si>
+    <t>82-19 242nd Street, Bellerose, NY 11426</t>
+  </si>
+  <si>
+    <t>80 Berry Ave, Staten Island, NY 10312</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/80-Berry-Ave-Staten-Island-NY-10312/32357553_zpid/</t>
+  </si>
+  <si>
+    <t>444 Underhill Ave, Bronx, NY 10473</t>
+  </si>
+  <si>
+    <t>91-21 84th Street, Woodhaven, NY 11421</t>
+  </si>
+  <si>
+    <t>835 Dean Avenue, Bronx, NY 10465</t>
+  </si>
+  <si>
+    <t>435 E 87th St, New York, NY 10128</t>
+  </si>
+  <si>
+    <t>199 W 179th Street, Bronx, NY 10453</t>
+  </si>
+  <si>
+    <t>38-14 218th St, Bayside, NY 11361</t>
+  </si>
+  <si>
+    <t>1447 E 27th St, Brooklyn, NY 11210</t>
+  </si>
+  <si>
+    <t>347 E 62nd St, New York, NY 10065</t>
+  </si>
+  <si>
+    <t>63 Gregg Place, Staten Island, NY 10301</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/63-Gregg-Pl-Staten-Island-NY-10301/32274062_zpid/</t>
+  </si>
+  <si>
+    <t>505 E 26th St, Brooklyn, NY 11210</t>
+  </si>
+  <si>
+    <t>186 17th St, Brooklyn, NY 11215</t>
+  </si>
+  <si>
+    <t>6-32 150th Place, Whitestone, NY 11357</t>
+  </si>
+  <si>
+    <t>86 71st St, Brooklyn, NY 11209</t>
+  </si>
+  <si>
+    <t>1123 85th St, Brooklyn, NY 11228</t>
+  </si>
+  <si>
+    <t>784 Ionia Avenue, Staten Island, NY 10312</t>
+  </si>
+  <si>
+    <t>305 Arkansas Dr, Brooklyn, NY 11234</t>
+  </si>
+  <si>
+    <t>97-11 134th Road, Ozone Park, NY 11417</t>
+  </si>
+  <si>
+    <t>475 Argyle Road, Ditmas Park, NY 11226</t>
+  </si>
+  <si>
+    <t>1950 Mulford Ave, Bronx, NY 10461</t>
+  </si>
+  <si>
+    <t>435 E 51st St, Brooklyn, NY 11203</t>
+  </si>
+  <si>
+    <t>64 Winham Ave, Staten Island, NY 10306</t>
+  </si>
+  <si>
+    <t>147-02 14th Avenue, Whitestone, NY 11357</t>
+  </si>
+  <si>
+    <t>39-05 Douglaston Parkway, Douglaston, NY 11363</t>
+  </si>
+  <si>
+    <t>636 Vanderbilt St, Brooklyn, NY 11218</t>
+  </si>
+  <si>
+    <t>133-36 147 Street, Jamaica, NY 11436</t>
+  </si>
+  <si>
+    <t>90 Flagg Pl, Staten Island, NY 10304</t>
+  </si>
+  <si>
+    <t>555 W 227th Street, Bronx, NY 10463</t>
+  </si>
+  <si>
+    <t>2848 Haring St, Brooklyn, NY 11235</t>
+  </si>
+  <si>
+    <t>19 Wandel Ave, Staten Island, NY 10304</t>
+  </si>
+  <si>
+    <t>14 Ottavio Promenade, Staten Island, NY 10307</t>
+  </si>
+  <si>
+    <t>218 N 5th St, Brooklyn, NY 11211</t>
+  </si>
+  <si>
+    <t>194 Windham Loop, Staten Island, NY 10314</t>
+  </si>
+  <si>
+    <t>8570 79th St, Jamaica, NY 11421</t>
+  </si>
+  <si>
+    <t>1509 E 48th St, Brooklyn, NY 11234</t>
+  </si>
+  <si>
+    <t>647 Baltic St #1, Brooklyn, NY 11217</t>
+  </si>
+  <si>
+    <t>76-07 271st Street, New Hyde Park, NY 11040</t>
+  </si>
+  <si>
+    <t>117-06 Park Lane, Kew Gardens, NY 11418</t>
+  </si>
+  <si>
+    <t>7721 249th St, Jamaica, NY 11426</t>
+  </si>
+  <si>
+    <t>226-15 76 Road, Bayside, NY 11364</t>
+  </si>
+  <si>
+    <t>26-50 211th Street, Bayside, NY 11360</t>
+  </si>
+  <si>
+    <t>3205 Ampere Avenue, Bronx, NY 10465</t>
+  </si>
+  <si>
+    <t>29-37 168th Street, Flushing, NY 11358</t>
+  </si>
+  <si>
+    <t>150-25 Coolidge Avenue, Briarwood, NY 11432</t>
+  </si>
+  <si>
+    <t>5336 62nd St, Flushing, NY 11378</t>
+  </si>
+  <si>
+    <t>765 E 224th St, Bronx, NY 10466</t>
+  </si>
+  <si>
+    <t>28 Gary Pl, Staten Island, NY 10314</t>
+  </si>
+  <si>
+    <t>269 College Ave, Staten Island, NY 10314</t>
+  </si>
+  <si>
+    <t>1226 Shakespeare Avenue, Bronx, NY 10452</t>
+  </si>
+  <si>
+    <t>1722 70th St, Brooklyn, NY 11204</t>
+  </si>
+  <si>
+    <t>26-34 169th Street, Flushing, NY 11358</t>
+  </si>
+  <si>
+    <t>457 Maine Ave, Staten Island, NY 10314</t>
+  </si>
+  <si>
+    <t>15924 80th St, Jamaica, NY 11414</t>
+  </si>
+  <si>
+    <t>19535 39th Ave, Flushing, NY 11358</t>
+  </si>
+  <si>
+    <t>146-38 61st Road, Flushing, NY 11367</t>
+  </si>
+  <si>
+    <t>84-53 Avon Street, Jamaica Estates, NY 11432</t>
+  </si>
+  <si>
+    <t>34 Colonial Ct, Brooklyn, NY 11209</t>
+  </si>
+  <si>
+    <t>11432 127th St, Jamaica, NY 11420</t>
+  </si>
+  <si>
+    <t>52 South St, Staten Island, NY 10310</t>
+  </si>
+  <si>
+    <t>1227 Tabor Ct, Brooklyn, NY 11219</t>
+  </si>
+  <si>
+    <t>1747 Stuart St #1, Brooklyn, NY 11229</t>
+  </si>
+  <si>
+    <t>46-06 193rd Street, Flushing, NY 11358</t>
+  </si>
+  <si>
+    <t>13-29 Malba Drive, Whitestone, NY 11357</t>
+  </si>
+  <si>
+    <t>259-03 62nd Avenue, Little Neck, NY 11362</t>
+  </si>
+  <si>
+    <t>439 Sackett St, Brooklyn, NY 11231</t>
+  </si>
+  <si>
+    <t>46 Yacht Club Cv, Staten Island, NY 10308</t>
+  </si>
+  <si>
+    <t>11030 69th Rd, Flushing, NY 11375</t>
+  </si>
+  <si>
+    <t>69-91 113 Street, Forest Hills, NY 11375</t>
+  </si>
+  <si>
+    <t>7511 Avenue X, Brooklyn, NY 11234</t>
+  </si>
+  <si>
+    <t>535 1st St, Brooklyn, NY 11215</t>
+  </si>
+  <si>
+    <t>18 Alysia Ct, Staten Island, NY 10309</t>
+  </si>
+  <si>
+    <t>1009 Carroll St, Brooklyn, NY 11225</t>
+  </si>
+  <si>
+    <t>21 W 70th St, New York, NY 10023</t>
+  </si>
+  <si>
+    <t>249-07 148th Road, Rosedale, NY 11422</t>
+  </si>
+  <si>
+    <t>163-44 90th Street, Howard Beach, NY 11414</t>
+  </si>
+  <si>
+    <t>102 Beacon Ave, Staten Island, NY 10306</t>
+  </si>
+  <si>
+    <t>36 Di Marco Pl, Staten Island, NY 10306</t>
+  </si>
+  <si>
+    <t>36-22 202nd St, Bayside, NY 11361</t>
+  </si>
+  <si>
+    <t>8321 12th Ave, Brooklyn, NY 11228</t>
+  </si>
+  <si>
+    <t>56-11 194th Street, Fresh Meadows, NY 11365</t>
+  </si>
+  <si>
+    <t>134 King St, Staten Island, NY 10308</t>
+  </si>
+  <si>
+    <t>246 Howard Ave, Staten Island, NY 10301</t>
+  </si>
+  <si>
+    <t>5315 64th St, Flushing, NY 11378</t>
+  </si>
+  <si>
+    <t>2878 Sampson Avenue, Bronx, NY 10465</t>
+  </si>
+  <si>
+    <t>89-05 204th Street, Hollis, NY 11423</t>
+  </si>
+  <si>
+    <t>211 Beverley Rd, Brooklyn, NY 11218</t>
+  </si>
+  <si>
+    <t>135-06 228th Street, Laurelton, NY 11413</t>
+  </si>
+  <si>
+    <t>259 Miller Ave, Brooklyn, NY 11207</t>
+  </si>
+  <si>
+    <t>357 Pacific St, Brooklyn, NY 11217</t>
+  </si>
+  <si>
+    <t>8366 Charlecote Rdg, Jamaica, NY 11432</t>
+  </si>
+  <si>
+    <t>165-06 32nd Avenue, Flushing, NY 11358</t>
+  </si>
+  <si>
+    <t>42 W 10th Road, Broad Channel, NY 11693</t>
+  </si>
+  <si>
+    <t>14313 Ferndale Ave, Jamaica, NY 11435</t>
+  </si>
+  <si>
+    <t>224 W 262nd St, Bronx, NY 10471</t>
+  </si>
+  <si>
+    <t>6926 182nd St, Flushing, NY 11365</t>
+  </si>
+  <si>
+    <t>1150 62nd St, Brooklyn, NY 11219</t>
+  </si>
+  <si>
+    <t>149 79th St, Brooklyn, NY 11209</t>
+  </si>
+  <si>
+    <t>6905 Avenue T, Brooklyn, NY 11234</t>
+  </si>
+  <si>
+    <t>99 Dahlgren Pl, Brooklyn, NY 11228</t>
+  </si>
+  <si>
+    <t>444 Prospect Ave, Brooklyn, NY 11215</t>
   </si>
 </sst>
 </file>
@@ -6238,4495 +6676,3421 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE71AF9-0A0F-4077-ADBE-7E872E047F72}">
-  <dimension ref="A1:H181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3828679E-56BA-436E-8DC3-A66091C14BFD}">
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1124900</v>
       </c>
       <c r="B2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10314</v>
-      </c>
-      <c r="E2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F2" t="s">
         <v>396</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
         <v>1260</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>759000</v>
       </c>
       <c r="B3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D3" s="1">
-        <v>11232</v>
-      </c>
-      <c r="E3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F3" t="s">
         <v>397</v>
       </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
       <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1690</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1088888</v>
       </c>
       <c r="B4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D4" s="1">
-        <v>11358</v>
-      </c>
-      <c r="E4" t="s">
+        <v>563</v>
+      </c>
+      <c r="F4" t="s">
         <v>398</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
         <v>1748</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>629000</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10306</v>
-      </c>
-      <c r="E5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
       <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1135</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>699000</v>
       </c>
       <c r="B6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D6" s="1">
-        <v>11203</v>
-      </c>
-      <c r="E6" t="s">
+        <v>565</v>
+      </c>
+      <c r="F6" t="s">
         <v>399</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>1582</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>925000</v>
       </c>
       <c r="B7" t="s">
-        <v>570</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10314</v>
-      </c>
-      <c r="E7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>2196</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>999000</v>
       </c>
       <c r="B8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D8" s="1">
-        <v>11228</v>
-      </c>
-      <c r="E8" t="s">
+        <v>567</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
       <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1328</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>689900</v>
       </c>
       <c r="B9" t="s">
-        <v>570</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10305</v>
-      </c>
-      <c r="E9" t="s">
+        <v>568</v>
+      </c>
+      <c r="F9" t="s">
         <v>400</v>
       </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>572400</v>
       </c>
       <c r="B10" t="s">
-        <v>570</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10312</v>
-      </c>
-      <c r="E10" t="s">
+        <v>569</v>
+      </c>
+      <c r="F10" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>599999</v>
+        <v>515000</v>
       </c>
       <c r="B11" t="s">
         <v>570</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10312</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>402</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>724999</v>
+      </c>
+      <c r="B12" t="s">
+        <v>571</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="H11">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>515000</v>
-      </c>
-      <c r="B12" t="s">
-        <v>570</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10301</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="I12">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>568000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>572</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>788000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>573</v>
+      </c>
+      <c r="F14" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>724999</v>
       </c>
-      <c r="B13" t="s">
-        <v>570</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10312</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13">
+      <c r="B15" t="s">
+        <v>574</v>
+      </c>
+      <c r="F15" t="s">
+        <v>404</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1425000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>575</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
         <v>4</v>
       </c>
-      <c r="G13">
+      <c r="I16">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>850000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F17" t="s">
+        <v>405</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>725000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>577</v>
+      </c>
+      <c r="F18" t="s">
+        <v>406</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="H13">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>568000</v>
-      </c>
-      <c r="B14" t="s">
-        <v>570</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10307</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="I18">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1098000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>578</v>
+      </c>
+      <c r="F19" t="s">
+        <v>579</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1199000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>580</v>
+      </c>
+      <c r="F20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>865000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>581</v>
+      </c>
+      <c r="F21" t="s">
+        <v>408</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2250000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>582</v>
+      </c>
+      <c r="F22" t="s">
+        <v>409</v>
+      </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>800000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>583</v>
+      </c>
+      <c r="F23" t="s">
+        <v>410</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>725000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>584</v>
+      </c>
+      <c r="F24" t="s">
+        <v>411</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>949000</v>
+      </c>
+      <c r="B25" t="s">
+        <v>585</v>
+      </c>
+      <c r="F25" t="s">
+        <v>412</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>719000</v>
+      </c>
+      <c r="B26" t="s">
+        <v>586</v>
+      </c>
+      <c r="F26" t="s">
+        <v>413</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>699000</v>
+      </c>
+      <c r="B27" t="s">
+        <v>587</v>
+      </c>
+      <c r="F27" t="s">
+        <v>414</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>570000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>588</v>
+      </c>
+      <c r="F28" t="s">
+        <v>589</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>57500000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>590</v>
+      </c>
+      <c r="F29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>788000</v>
-      </c>
-      <c r="B15" t="s">
-        <v>572</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D15" s="1">
-        <v>11356</v>
-      </c>
-      <c r="E15" t="s">
-        <v>404</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>724999</v>
-      </c>
-      <c r="B16" t="s">
-        <v>570</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10306</v>
-      </c>
-      <c r="E16" t="s">
-        <v>405</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>690000</v>
+      </c>
+      <c r="B30" t="s">
+        <v>591</v>
+      </c>
+      <c r="F30" t="s">
+        <v>416</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>599900</v>
+      </c>
+      <c r="B31" t="s">
+        <v>592</v>
+      </c>
+      <c r="F31" t="s">
+        <v>417</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
         <v>2</v>
       </c>
-      <c r="H16">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1425000</v>
-      </c>
-      <c r="B17" t="s">
-        <v>570</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D17" s="1">
-        <v>10306</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
+      <c r="I31">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>12950000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>593</v>
+      </c>
+      <c r="F32" t="s">
+        <v>418</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>799000</v>
+      </c>
+      <c r="B33" t="s">
+        <v>594</v>
+      </c>
+      <c r="F33" t="s">
+        <v>419</v>
+      </c>
+      <c r="G33">
         <v>4</v>
       </c>
-      <c r="H17">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>850000</v>
-      </c>
-      <c r="B18" t="s">
-        <v>570</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D18" s="1">
-        <v>10312</v>
-      </c>
-      <c r="E18" t="s">
-        <v>406</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>725000</v>
-      </c>
-      <c r="B19" t="s">
-        <v>570</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D19" s="1">
-        <v>10304</v>
-      </c>
-      <c r="E19" t="s">
-        <v>407</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>400000</v>
-      </c>
-      <c r="B20" t="s">
-        <v>573</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D20" s="1">
-        <v>11379</v>
-      </c>
-      <c r="E20" t="s">
-        <v>408</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1199000</v>
-      </c>
-      <c r="B21" t="s">
-        <v>574</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D21" s="1">
-        <v>11004</v>
-      </c>
-      <c r="E21" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>865000</v>
-      </c>
-      <c r="B22" t="s">
-        <v>575</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D22" s="1">
-        <v>10465</v>
-      </c>
-      <c r="E22" t="s">
-        <v>410</v>
-      </c>
-      <c r="F22">
+      <c r="H33">
         <v>4</v>
       </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2250000</v>
-      </c>
-      <c r="B23" t="s">
-        <v>571</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D23" s="1">
-        <v>11225</v>
-      </c>
-      <c r="E23" t="s">
-        <v>411</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>4110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>800000</v>
-      </c>
-      <c r="B24" t="s">
-        <v>576</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D24" s="1">
-        <v>11375</v>
-      </c>
-      <c r="E24" t="s">
-        <v>412</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>725000</v>
-      </c>
-      <c r="B25" t="s">
-        <v>575</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D25" s="1">
-        <v>10463</v>
-      </c>
-      <c r="E25" t="s">
-        <v>413</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>949000</v>
-      </c>
-      <c r="B26" t="s">
-        <v>571</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D26" s="1">
-        <v>11234</v>
-      </c>
-      <c r="E26" t="s">
-        <v>414</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>719000</v>
-      </c>
-      <c r="B27" t="s">
-        <v>575</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D27" s="1">
-        <v>10469</v>
-      </c>
-      <c r="E27" t="s">
-        <v>415</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>699000</v>
-      </c>
-      <c r="B28" t="s">
-        <v>577</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="D28" s="1">
-        <v>11426</v>
-      </c>
-      <c r="E28" t="s">
-        <v>416</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1250000</v>
-      </c>
-      <c r="B29" t="s">
-        <v>572</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D29" s="1">
-        <v>11375</v>
-      </c>
-      <c r="E29" t="s">
-        <v>417</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>57500000</v>
-      </c>
-      <c r="B30" t="s">
-        <v>578</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="D30" s="1">
-        <v>10021</v>
-      </c>
-      <c r="E30" t="s">
-        <v>418</v>
-      </c>
-      <c r="F30">
-        <v>6</v>
-      </c>
-      <c r="G30">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>690000</v>
-      </c>
-      <c r="B31" t="s">
-        <v>579</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D31" s="1">
-        <v>11429</v>
-      </c>
-      <c r="E31" t="s">
-        <v>419</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="H31">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>599900</v>
-      </c>
-      <c r="B32" t="s">
-        <v>570</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D32" s="1">
-        <v>10306</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="I33">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>638000</v>
+      </c>
+      <c r="B34" t="s">
+        <v>595</v>
+      </c>
+      <c r="F34" t="s">
         <v>420</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>12950000</v>
-      </c>
-      <c r="B33" t="s">
-        <v>571</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D33" s="1">
-        <v>11201</v>
-      </c>
-      <c r="E33" t="s">
-        <v>421</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-      <c r="G33">
-        <v>8</v>
-      </c>
-      <c r="H33">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>799000</v>
-      </c>
-      <c r="B34" t="s">
-        <v>580</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D34" s="1">
-        <v>11418</v>
-      </c>
-      <c r="E34" t="s">
-        <v>422</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
       </c>
       <c r="G34">
         <v>4</v>
       </c>
       <c r="H34">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>638000</v>
+        <v>849000</v>
       </c>
       <c r="B35" t="s">
-        <v>570</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D35" s="1">
-        <v>10304</v>
-      </c>
-      <c r="E35" t="s">
-        <v>423</v>
-      </c>
-      <c r="F35">
+        <v>596</v>
+      </c>
+      <c r="F35" t="s">
+        <v>421</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
         <v>4</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>849000</v>
+        <v>739000</v>
       </c>
       <c r="B36" t="s">
-        <v>579</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D36" s="1">
-        <v>11429</v>
-      </c>
-      <c r="E36" t="s">
-        <v>424</v>
-      </c>
-      <c r="F36">
-        <v>5</v>
+        <v>597</v>
+      </c>
+      <c r="F36" t="s">
+        <v>422</v>
       </c>
       <c r="G36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>739000</v>
+        <v>689000</v>
       </c>
       <c r="B37" t="s">
-        <v>575</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D37" s="1">
-        <v>10470</v>
-      </c>
-      <c r="E37" t="s">
+        <v>598</v>
+      </c>
+      <c r="F37" t="s">
+        <v>599</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>549000</v>
+      </c>
+      <c r="B38" t="s">
+        <v>600</v>
+      </c>
+      <c r="F38" t="s">
+        <v>423</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>685000</v>
+      </c>
+      <c r="B39" t="s">
+        <v>601</v>
+      </c>
+      <c r="F39" t="s">
+        <v>424</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6999000</v>
+      </c>
+      <c r="B40" t="s">
+        <v>602</v>
+      </c>
+      <c r="F40" t="s">
         <v>425</v>
       </c>
-      <c r="F37">
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>799999</v>
+      </c>
+      <c r="B41" t="s">
+        <v>603</v>
+      </c>
+      <c r="F41" t="s">
+        <v>426</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>879000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>604</v>
+      </c>
+      <c r="F42" t="s">
+        <v>427</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>798000</v>
+      </c>
+      <c r="B43" t="s">
+        <v>605</v>
+      </c>
+      <c r="F43" t="s">
+        <v>428</v>
+      </c>
+      <c r="G43">
         <v>4</v>
       </c>
-      <c r="G37">
+      <c r="H43">
         <v>2</v>
       </c>
-      <c r="H37">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>629999</v>
-      </c>
-      <c r="B38" t="s">
-        <v>570</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D38" s="1">
-        <v>10305</v>
-      </c>
-      <c r="E38" t="s">
-        <v>426</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38">
+      <c r="I43">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1875000</v>
+      </c>
+      <c r="B44" t="s">
+        <v>606</v>
+      </c>
+      <c r="F44" t="s">
+        <v>429</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
         <v>2</v>
       </c>
-      <c r="H38">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>549000</v>
-      </c>
-      <c r="B39" t="s">
-        <v>581</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="D39" s="1">
-        <v>11423</v>
-      </c>
-      <c r="E39" t="s">
-        <v>427</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>685000</v>
-      </c>
-      <c r="B40" t="s">
-        <v>582</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D40" s="1">
-        <v>11413</v>
-      </c>
-      <c r="E40" t="s">
-        <v>428</v>
-      </c>
-      <c r="F40">
+      <c r="I44">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>639000</v>
+      </c>
+      <c r="B45" t="s">
+        <v>607</v>
+      </c>
+      <c r="F45" t="s">
+        <v>430</v>
+      </c>
+      <c r="G45">
         <v>4</v>
       </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>6999000</v>
-      </c>
-      <c r="B41" t="s">
-        <v>583</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D41" s="1">
-        <v>11357</v>
-      </c>
-      <c r="E41" t="s">
-        <v>429</v>
-      </c>
-      <c r="F41">
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>795000</v>
+      </c>
+      <c r="B46" t="s">
+        <v>608</v>
+      </c>
+      <c r="F46" t="s">
+        <v>609</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1258000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>610</v>
+      </c>
+      <c r="F47" t="s">
+        <v>431</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2900000</v>
+      </c>
+      <c r="B48" t="s">
+        <v>611</v>
+      </c>
+      <c r="F48" t="s">
+        <v>432</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>668888</v>
+      </c>
+      <c r="B49" t="s">
+        <v>612</v>
+      </c>
+      <c r="F49" t="s">
+        <v>433</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>659777</v>
+      </c>
+      <c r="B50" t="s">
+        <v>613</v>
+      </c>
+      <c r="F50" t="s">
+        <v>434</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>848000</v>
+      </c>
+      <c r="B51" t="s">
+        <v>614</v>
+      </c>
+      <c r="F51" t="s">
+        <v>435</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1575000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>615</v>
+      </c>
+      <c r="F52" t="s">
+        <v>436</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>350000</v>
+      </c>
+      <c r="B53" t="s">
+        <v>616</v>
+      </c>
+      <c r="F53" t="s">
+        <v>437</v>
+      </c>
+      <c r="G53">
         <v>5</v>
       </c>
-      <c r="G41">
-        <v>6</v>
-      </c>
-      <c r="H41">
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>799999</v>
-      </c>
-      <c r="B42" t="s">
-        <v>584</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D42" s="1">
-        <v>11414</v>
-      </c>
-      <c r="E42" t="s">
-        <v>430</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42">
+      <c r="H53">
         <v>2</v>
       </c>
-      <c r="H42">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>879000</v>
-      </c>
-      <c r="B43" t="s">
-        <v>572</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D43" s="1">
-        <v>11379</v>
-      </c>
-      <c r="E43" t="s">
-        <v>431</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
+      <c r="I53">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>829000</v>
+      </c>
+      <c r="B54" t="s">
+        <v>617</v>
+      </c>
+      <c r="F54" t="s">
+        <v>438</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>798000</v>
-      </c>
-      <c r="B44" t="s">
-        <v>585</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D44" s="1">
-        <v>11370</v>
-      </c>
-      <c r="E44" t="s">
-        <v>432</v>
-      </c>
-      <c r="F44">
+      <c r="I54">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>815000</v>
+      </c>
+      <c r="B55" t="s">
+        <v>618</v>
+      </c>
+      <c r="F55" t="s">
+        <v>619</v>
+      </c>
+      <c r="G55">
         <v>4</v>
       </c>
-      <c r="G44">
+      <c r="H55">
         <v>2</v>
       </c>
-      <c r="H44">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1875000</v>
-      </c>
-      <c r="B45" t="s">
-        <v>571</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D45" s="1">
-        <v>11221</v>
-      </c>
-      <c r="E45" t="s">
-        <v>433</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45">
+      <c r="I55">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>849000</v>
+      </c>
+      <c r="B56" t="s">
+        <v>620</v>
+      </c>
+      <c r="F56" t="s">
+        <v>439</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
         <v>2</v>
       </c>
-      <c r="H45">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>639000</v>
-      </c>
-      <c r="B46" t="s">
-        <v>586</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D46" s="1">
-        <v>11418</v>
-      </c>
-      <c r="E46" t="s">
-        <v>434</v>
-      </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="H46">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>849000</v>
-      </c>
-      <c r="B47" t="s">
-        <v>587</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D47" s="1">
-        <v>11385</v>
-      </c>
-      <c r="E47" t="s">
-        <v>435</v>
-      </c>
-      <c r="F47">
-        <v>3</v>
-      </c>
-      <c r="G47">
-        <v>3</v>
-      </c>
-      <c r="H47">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1258000</v>
-      </c>
-      <c r="B48" t="s">
-        <v>577</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="D48" s="1">
-        <v>11426</v>
-      </c>
-      <c r="E48" t="s">
-        <v>436</v>
-      </c>
-      <c r="F48">
-        <v>4</v>
-      </c>
-      <c r="G48">
-        <v>3</v>
-      </c>
-      <c r="H48">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>2900000</v>
-      </c>
-      <c r="B49" t="s">
-        <v>586</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D49" s="1">
-        <v>11414</v>
-      </c>
-      <c r="E49" t="s">
-        <v>437</v>
-      </c>
-      <c r="F49">
-        <v>4</v>
-      </c>
-      <c r="G49">
-        <v>6</v>
-      </c>
-      <c r="H49">
-        <v>4725</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>668888</v>
-      </c>
-      <c r="B50" t="s">
-        <v>575</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D50" s="1">
-        <v>10465</v>
-      </c>
-      <c r="E50" t="s">
-        <v>438</v>
-      </c>
-      <c r="F50">
-        <v>3</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>659777</v>
-      </c>
-      <c r="B51" t="s">
-        <v>588</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D51" s="1">
-        <v>11412</v>
-      </c>
-      <c r="E51" t="s">
-        <v>439</v>
-      </c>
-      <c r="F51">
-        <v>3</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>848000</v>
-      </c>
-      <c r="B52" t="s">
-        <v>570</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D52" s="1">
-        <v>10308</v>
-      </c>
-      <c r="E52" t="s">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>525000</v>
+      </c>
+      <c r="B57" t="s">
+        <v>621</v>
+      </c>
+      <c r="F57" t="s">
         <v>440</v>
-      </c>
-      <c r="F52">
-        <v>3</v>
-      </c>
-      <c r="G52">
-        <v>3</v>
-      </c>
-      <c r="H52">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1575000</v>
-      </c>
-      <c r="B53" t="s">
-        <v>570</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D53" s="1">
-        <v>10312</v>
-      </c>
-      <c r="E53" t="s">
-        <v>441</v>
-      </c>
-      <c r="F53">
-        <v>3</v>
-      </c>
-      <c r="G53">
-        <v>4</v>
-      </c>
-      <c r="H53">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>350000</v>
-      </c>
-      <c r="B54" t="s">
-        <v>586</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D54" s="1">
-        <v>11412</v>
-      </c>
-      <c r="E54" t="s">
-        <v>442</v>
-      </c>
-      <c r="F54">
-        <v>5</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>829000</v>
-      </c>
-      <c r="B55" t="s">
-        <v>587</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D55" s="1">
-        <v>11385</v>
-      </c>
-      <c r="E55" t="s">
-        <v>443</v>
-      </c>
-      <c r="F55">
-        <v>3</v>
-      </c>
-      <c r="G55">
-        <v>2</v>
-      </c>
-      <c r="H55">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>775000</v>
-      </c>
-      <c r="B56" t="s">
-        <v>570</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D56" s="1">
-        <v>10314</v>
-      </c>
-      <c r="E56" t="s">
-        <v>444</v>
-      </c>
-      <c r="F56">
-        <v>3</v>
-      </c>
-      <c r="G56">
-        <v>2</v>
-      </c>
-      <c r="H56">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>849000</v>
-      </c>
-      <c r="B57" t="s">
-        <v>589</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D57" s="1">
-        <v>11385</v>
-      </c>
-      <c r="E57" t="s">
-        <v>445</v>
-      </c>
-      <c r="F57">
-        <v>3</v>
       </c>
       <c r="G57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>525000</v>
+        <v>799000</v>
       </c>
       <c r="B58" t="s">
-        <v>575</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D58" s="1">
-        <v>10466</v>
-      </c>
-      <c r="E58" t="s">
-        <v>446</v>
-      </c>
-      <c r="F58">
+        <v>622</v>
+      </c>
+      <c r="F58" t="s">
+        <v>441</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
         <v>2</v>
       </c>
-      <c r="G58">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>959000</v>
+      </c>
+      <c r="B59" t="s">
+        <v>623</v>
+      </c>
+      <c r="F59" t="s">
+        <v>442</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
         <v>2</v>
       </c>
-      <c r="H58">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>799000</v>
-      </c>
-      <c r="B59" t="s">
-        <v>586</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D59" s="1">
-        <v>11415</v>
-      </c>
-      <c r="E59" t="s">
-        <v>447</v>
-      </c>
-      <c r="F59">
-        <v>3</v>
-      </c>
-      <c r="G59">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>630000</v>
+      </c>
+      <c r="B60" t="s">
+        <v>624</v>
+      </c>
+      <c r="F60" t="s">
+        <v>443</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>959000</v>
-      </c>
-      <c r="B60" t="s">
-        <v>572</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D60" s="1">
-        <v>11377</v>
-      </c>
-      <c r="E60" t="s">
-        <v>448</v>
-      </c>
-      <c r="F60">
-        <v>3</v>
-      </c>
-      <c r="G60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>630000</v>
+        <v>699900</v>
       </c>
       <c r="B61" t="s">
-        <v>575</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D61" s="1">
-        <v>10465</v>
-      </c>
-      <c r="E61" t="s">
-        <v>449</v>
-      </c>
-      <c r="F61">
-        <v>3</v>
+        <v>625</v>
+      </c>
+      <c r="F61" t="s">
+        <v>444</v>
       </c>
       <c r="G61">
         <v>2</v>
       </c>
       <c r="H61">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>699900</v>
+        <v>768000</v>
       </c>
       <c r="B62" t="s">
-        <v>570</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D62" s="1">
-        <v>10306</v>
-      </c>
-      <c r="E62" t="s">
+        <v>626</v>
+      </c>
+      <c r="F62" t="s">
+        <v>445</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1460000</v>
+      </c>
+      <c r="B63" t="s">
+        <v>627</v>
+      </c>
+      <c r="F63" t="s">
+        <v>446</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>849000</v>
+      </c>
+      <c r="B64" t="s">
+        <v>628</v>
+      </c>
+      <c r="F64" t="s">
+        <v>629</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1288000</v>
+      </c>
+      <c r="B65" t="s">
+        <v>630</v>
+      </c>
+      <c r="F65" t="s">
+        <v>447</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>43000000</v>
+      </c>
+      <c r="B66" t="s">
+        <v>631</v>
+      </c>
+      <c r="F66" t="s">
+        <v>448</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="H66">
+        <v>13</v>
+      </c>
+      <c r="I66">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1595000</v>
+      </c>
+      <c r="B67" t="s">
+        <v>632</v>
+      </c>
+      <c r="F67" t="s">
+        <v>449</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1370000</v>
+      </c>
+      <c r="B68" t="s">
+        <v>633</v>
+      </c>
+      <c r="F68" t="s">
         <v>450</v>
       </c>
-      <c r="F62">
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>699000</v>
+      </c>
+      <c r="B69" t="s">
+        <v>634</v>
+      </c>
+      <c r="F69" t="s">
+        <v>451</v>
+      </c>
+      <c r="G69">
         <v>2</v>
       </c>
-      <c r="G62">
-        <v>3</v>
-      </c>
-      <c r="H62">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>768000</v>
-      </c>
-      <c r="B63" t="s">
-        <v>570</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D63" s="1">
-        <v>10305</v>
-      </c>
-      <c r="E63" t="s">
-        <v>451</v>
-      </c>
-      <c r="F63">
-        <v>4</v>
-      </c>
-      <c r="G63">
-        <v>3</v>
-      </c>
-      <c r="H63">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1460000</v>
-      </c>
-      <c r="B64" t="s">
-        <v>571</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D64" s="1">
-        <v>11216</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1350000</v>
+      </c>
+      <c r="B70" t="s">
+        <v>635</v>
+      </c>
+      <c r="F70" t="s">
         <v>452</v>
       </c>
-      <c r="F64">
-        <v>4</v>
-      </c>
-      <c r="G64">
-        <v>3</v>
-      </c>
-      <c r="H64">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>629000</v>
-      </c>
-      <c r="B65" t="s">
-        <v>571</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D65" s="1">
-        <v>11207</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>499000</v>
+      </c>
+      <c r="B71" t="s">
+        <v>636</v>
+      </c>
+      <c r="F71" t="s">
         <v>453</v>
-      </c>
-      <c r="F65">
-        <v>3</v>
-      </c>
-      <c r="G65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1288000</v>
-      </c>
-      <c r="B66" t="s">
-        <v>590</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="D66" s="1">
-        <v>11362</v>
-      </c>
-      <c r="E66" t="s">
-        <v>454</v>
-      </c>
-      <c r="F66">
-        <v>3</v>
-      </c>
-      <c r="G66">
-        <v>5</v>
-      </c>
-      <c r="H66">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>43000000</v>
-      </c>
-      <c r="B67" t="s">
-        <v>578</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="D67" s="1">
-        <v>10021</v>
-      </c>
-      <c r="E67" t="s">
-        <v>455</v>
-      </c>
-      <c r="F67">
-        <v>6</v>
-      </c>
-      <c r="G67">
-        <v>13</v>
-      </c>
-      <c r="H67">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1595000</v>
-      </c>
-      <c r="B68" t="s">
-        <v>571</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D68" s="1">
-        <v>11232</v>
-      </c>
-      <c r="E68" t="s">
-        <v>456</v>
-      </c>
-      <c r="F68">
-        <v>3</v>
-      </c>
-      <c r="G68">
-        <v>3</v>
-      </c>
-      <c r="H68">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1370000</v>
-      </c>
-      <c r="B69" t="s">
-        <v>591</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D69" s="1">
-        <v>11364</v>
-      </c>
-      <c r="E69" t="s">
-        <v>457</v>
-      </c>
-      <c r="F69">
-        <v>3</v>
-      </c>
-      <c r="G69">
-        <v>3</v>
-      </c>
-      <c r="H69">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>699000</v>
-      </c>
-      <c r="B70" t="s">
-        <v>584</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D70" s="1">
-        <v>11414</v>
-      </c>
-      <c r="E70" t="s">
-        <v>458</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1350000</v>
-      </c>
-      <c r="B71" t="s">
-        <v>572</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D71" s="1">
-        <v>11354</v>
-      </c>
-      <c r="E71" t="s">
-        <v>459</v>
-      </c>
-      <c r="F71">
-        <v>3</v>
       </c>
       <c r="G71">
         <v>2</v>
       </c>
       <c r="H71">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>499000</v>
+        <v>799000</v>
       </c>
       <c r="B72" t="s">
-        <v>571</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D72" s="1">
-        <v>11203</v>
-      </c>
-      <c r="E72" t="s">
+        <v>637</v>
+      </c>
+      <c r="F72" t="s">
+        <v>454</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1499900</v>
+      </c>
+      <c r="B73" t="s">
+        <v>638</v>
+      </c>
+      <c r="F73" t="s">
+        <v>639</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>799000</v>
+      </c>
+      <c r="B74" t="s">
+        <v>640</v>
+      </c>
+      <c r="F74" t="s">
+        <v>455</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1148000</v>
+      </c>
+      <c r="B75" t="s">
+        <v>641</v>
+      </c>
+      <c r="F75" t="s">
+        <v>456</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>988888</v>
+      </c>
+      <c r="B76" t="s">
+        <v>642</v>
+      </c>
+      <c r="F76" t="s">
+        <v>457</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>799000</v>
+      </c>
+      <c r="B77" t="s">
+        <v>643</v>
+      </c>
+      <c r="F77" t="s">
+        <v>458</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>699999</v>
+      </c>
+      <c r="B78" t="s">
+        <v>644</v>
+      </c>
+      <c r="F78" t="s">
+        <v>459</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>829000</v>
+      </c>
+      <c r="B79" t="s">
+        <v>645</v>
+      </c>
+      <c r="F79" t="s">
         <v>460</v>
       </c>
-      <c r="F72">
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1579000</v>
+      </c>
+      <c r="B80" t="s">
+        <v>646</v>
+      </c>
+      <c r="F80" t="s">
+        <v>461</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1378000</v>
+      </c>
+      <c r="B81" t="s">
+        <v>647</v>
+      </c>
+      <c r="F81" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>888000</v>
+      </c>
+      <c r="B82" t="s">
+        <v>648</v>
+      </c>
+      <c r="F82" t="s">
+        <v>649</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>480000</v>
+      </c>
+      <c r="B83" t="s">
+        <v>650</v>
+      </c>
+      <c r="F83" t="s">
+        <v>463</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>3</v>
+      </c>
+      <c r="I83">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>725000</v>
+      </c>
+      <c r="B84" t="s">
+        <v>651</v>
+      </c>
+      <c r="F84" t="s">
+        <v>464</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>899000</v>
+      </c>
+      <c r="B85" t="s">
+        <v>652</v>
+      </c>
+      <c r="F85" t="s">
+        <v>465</v>
+      </c>
+      <c r="G85">
+        <v>4</v>
+      </c>
+      <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>11000000</v>
+      </c>
+      <c r="B86" t="s">
+        <v>653</v>
+      </c>
+      <c r="F86" t="s">
+        <v>466</v>
+      </c>
+      <c r="G86">
+        <v>6</v>
+      </c>
+      <c r="H86">
+        <v>7</v>
+      </c>
+      <c r="I86">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>799000</v>
+      </c>
+      <c r="B87" t="s">
+        <v>654</v>
+      </c>
+      <c r="F87" t="s">
+        <v>467</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="I87">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1327000</v>
+      </c>
+      <c r="B88" t="s">
+        <v>655</v>
+      </c>
+      <c r="F88" t="s">
+        <v>468</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>918000</v>
+      </c>
+      <c r="B89" t="s">
+        <v>656</v>
+      </c>
+      <c r="F89" t="s">
+        <v>469</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
         <v>2</v>
       </c>
-      <c r="G72">
-        <v>2</v>
-      </c>
-      <c r="H72">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>799000</v>
-      </c>
-      <c r="B73" t="s">
-        <v>571</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D73" s="1">
-        <v>11234</v>
-      </c>
-      <c r="E73" t="s">
-        <v>461</v>
-      </c>
-      <c r="F73">
-        <v>3</v>
-      </c>
-      <c r="G73">
-        <v>2</v>
-      </c>
-      <c r="H73">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>5990000</v>
-      </c>
-      <c r="B74" t="s">
-        <v>575</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D74" s="1">
-        <v>10463</v>
-      </c>
-      <c r="E74" t="s">
-        <v>462</v>
-      </c>
-      <c r="F74">
+      <c r="I89">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3750000</v>
+      </c>
+      <c r="B90" t="s">
+        <v>657</v>
+      </c>
+      <c r="F90" t="s">
+        <v>470</v>
+      </c>
+      <c r="G90">
         <v>5</v>
       </c>
-      <c r="G74">
-        <v>5</v>
-      </c>
-      <c r="H74">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>799000</v>
-      </c>
-      <c r="B75" t="s">
-        <v>592</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D75" s="1">
-        <v>11417</v>
-      </c>
-      <c r="E75" t="s">
-        <v>463</v>
-      </c>
-      <c r="F75">
-        <v>3</v>
-      </c>
-      <c r="G75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1148000</v>
-      </c>
-      <c r="B76" t="s">
-        <v>571</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D76" s="1">
-        <v>11214</v>
-      </c>
-      <c r="E76" t="s">
-        <v>464</v>
-      </c>
-      <c r="F76">
-        <v>3</v>
-      </c>
-      <c r="G76">
-        <v>2</v>
-      </c>
-      <c r="H76">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>988888</v>
-      </c>
-      <c r="B77" t="s">
-        <v>572</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D77" s="1">
-        <v>11361</v>
-      </c>
-      <c r="E77" t="s">
-        <v>465</v>
-      </c>
-      <c r="F77">
-        <v>3</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>799000</v>
-      </c>
-      <c r="B78" t="s">
-        <v>571</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D78" s="1">
-        <v>11234</v>
-      </c>
-      <c r="E78" t="s">
-        <v>466</v>
-      </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-      <c r="G78">
-        <v>2</v>
-      </c>
-      <c r="H78">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>699999</v>
-      </c>
-      <c r="B79" t="s">
-        <v>570</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D79" s="1">
-        <v>10314</v>
-      </c>
-      <c r="E79" t="s">
-        <v>467</v>
-      </c>
-      <c r="F79">
-        <v>3</v>
-      </c>
-      <c r="G79">
-        <v>2</v>
-      </c>
-      <c r="H79">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>829000</v>
-      </c>
-      <c r="B80" t="s">
-        <v>571</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D80" s="1">
-        <v>11234</v>
-      </c>
-      <c r="E80" t="s">
-        <v>468</v>
-      </c>
-      <c r="F80">
-        <v>3</v>
-      </c>
-      <c r="G80">
-        <v>3</v>
-      </c>
-      <c r="H80">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1579000</v>
-      </c>
-      <c r="B81" t="s">
-        <v>570</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D81" s="1">
-        <v>10308</v>
-      </c>
-      <c r="E81" t="s">
-        <v>469</v>
-      </c>
-      <c r="F81">
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>975000</v>
+      </c>
+      <c r="B91" t="s">
+        <v>658</v>
+      </c>
+      <c r="F91" t="s">
+        <v>659</v>
+      </c>
+      <c r="G91">
         <v>4</v>
       </c>
-      <c r="G81">
-        <v>4</v>
-      </c>
-      <c r="H81">
-        <v>3862</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>1378000</v>
-      </c>
-      <c r="B82" t="s">
-        <v>577</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="D82" s="1">
-        <v>11426</v>
-      </c>
-      <c r="E82" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1998000</v>
-      </c>
-      <c r="B83" t="s">
-        <v>571</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D83" s="1">
-        <v>11218</v>
-      </c>
-      <c r="E83" t="s">
-        <v>471</v>
-      </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-      <c r="G83">
-        <v>2</v>
-      </c>
-      <c r="H83">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>480000</v>
-      </c>
-      <c r="B84" t="s">
-        <v>575</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D84" s="1">
-        <v>10473</v>
-      </c>
-      <c r="E84" t="s">
-        <v>472</v>
-      </c>
-      <c r="F84">
-        <v>4</v>
-      </c>
-      <c r="G84">
-        <v>3</v>
-      </c>
-      <c r="H84">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>725000</v>
-      </c>
-      <c r="B85" t="s">
-        <v>593</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="D85" s="1">
-        <v>11421</v>
-      </c>
-      <c r="E85" t="s">
-        <v>473</v>
-      </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-      <c r="G85">
-        <v>3</v>
-      </c>
-      <c r="H85">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>899000</v>
-      </c>
-      <c r="B86" t="s">
-        <v>575</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D86" s="1">
-        <v>10465</v>
-      </c>
-      <c r="E86" t="s">
-        <v>474</v>
-      </c>
-      <c r="F86">
-        <v>4</v>
-      </c>
-      <c r="G86">
-        <v>3</v>
-      </c>
-      <c r="H86">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>11000000</v>
-      </c>
-      <c r="B87" t="s">
-        <v>578</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="D87" s="1">
-        <v>10128</v>
-      </c>
-      <c r="E87" t="s">
-        <v>475</v>
-      </c>
-      <c r="F87">
-        <v>6</v>
-      </c>
-      <c r="G87">
-        <v>7</v>
-      </c>
-      <c r="H87">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>799000</v>
-      </c>
-      <c r="B88" t="s">
-        <v>575</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D88" s="1">
-        <v>10453</v>
-      </c>
-      <c r="E88" t="s">
-        <v>476</v>
-      </c>
-      <c r="F88">
-        <v>5</v>
-      </c>
-      <c r="G88">
-        <v>3</v>
-      </c>
-      <c r="H88">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>1327000</v>
-      </c>
-      <c r="B89" t="s">
-        <v>591</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D89" s="1">
-        <v>11361</v>
-      </c>
-      <c r="E89" t="s">
-        <v>477</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-      <c r="G89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>918000</v>
-      </c>
-      <c r="B90" t="s">
-        <v>571</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D90" s="1">
-        <v>11210</v>
-      </c>
-      <c r="E90" t="s">
-        <v>478</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-      <c r="G90">
-        <v>2</v>
-      </c>
-      <c r="H90">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>3750000</v>
-      </c>
-      <c r="B91" t="s">
-        <v>578</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="D91" s="1">
-        <v>10065</v>
-      </c>
-      <c r="E91" t="s">
-        <v>479</v>
-      </c>
-      <c r="F91">
-        <v>5</v>
-      </c>
-      <c r="G91">
-        <v>3</v>
-      </c>
       <c r="H91">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>899999</v>
       </c>
       <c r="B92" t="s">
-        <v>571</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D92" s="1">
-        <v>11210</v>
-      </c>
-      <c r="E92" t="s">
-        <v>480</v>
-      </c>
-      <c r="F92">
+        <v>660</v>
+      </c>
+      <c r="F92" t="s">
+        <v>471</v>
+      </c>
+      <c r="G92">
         <v>5</v>
       </c>
-      <c r="G92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1999000</v>
       </c>
       <c r="B93" t="s">
-        <v>571</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D93" s="1">
-        <v>11215</v>
-      </c>
-      <c r="E93" t="s">
-        <v>481</v>
-      </c>
-      <c r="F93">
+        <v>661</v>
+      </c>
+      <c r="F93" t="s">
+        <v>472</v>
+      </c>
+      <c r="G93">
         <v>4</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>2</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>3600</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1848000</v>
       </c>
       <c r="B94" t="s">
-        <v>594</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="D94" s="1">
-        <v>11357</v>
-      </c>
-      <c r="E94" t="s">
-        <v>482</v>
-      </c>
-      <c r="F94">
-        <v>3</v>
+        <v>662</v>
+      </c>
+      <c r="F94" t="s">
+        <v>473</v>
       </c>
       <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
         <v>4</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>2224</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1375000</v>
       </c>
       <c r="B95" t="s">
-        <v>571</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D95" s="1">
-        <v>11209</v>
-      </c>
-      <c r="E95" t="s">
-        <v>483</v>
-      </c>
-      <c r="F95">
+        <v>663</v>
+      </c>
+      <c r="F95" t="s">
+        <v>474</v>
+      </c>
+      <c r="G95">
         <v>4</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2799000</v>
       </c>
       <c r="B96" t="s">
-        <v>571</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D96" s="1">
-        <v>11228</v>
-      </c>
-      <c r="E96" t="s">
-        <v>484</v>
-      </c>
-      <c r="F96">
-        <v>4</v>
+        <v>664</v>
+      </c>
+      <c r="F96" t="s">
+        <v>475</v>
       </c>
       <c r="G96">
         <v>4</v>
       </c>
       <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96">
         <v>3300</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1549999</v>
       </c>
       <c r="B97" t="s">
-        <v>570</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D97" s="1">
-        <v>10312</v>
-      </c>
-      <c r="E97" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+      <c r="F97" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1250000</v>
       </c>
       <c r="B98" t="s">
-        <v>571</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D98" s="1">
-        <v>11234</v>
-      </c>
-      <c r="E98" t="s">
-        <v>486</v>
-      </c>
-      <c r="F98">
+        <v>666</v>
+      </c>
+      <c r="F98" t="s">
+        <v>477</v>
+      </c>
+      <c r="G98">
         <v>4</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>5</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>3100</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>815000</v>
       </c>
       <c r="B99" t="s">
-        <v>592</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D99" s="1">
-        <v>11417</v>
-      </c>
-      <c r="E99" t="s">
-        <v>487</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
+        <v>667</v>
+      </c>
+      <c r="F99" t="s">
+        <v>478</v>
       </c>
       <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
         <v>2</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>1170</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1990000</v>
       </c>
       <c r="B100" t="s">
-        <v>595</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D100" s="1">
-        <v>11226</v>
-      </c>
-      <c r="E100" t="s">
-        <v>488</v>
-      </c>
-      <c r="F100">
-        <v>5</v>
+        <v>668</v>
+      </c>
+      <c r="F100" t="s">
+        <v>479</v>
       </c>
       <c r="G100">
         <v>5</v>
       </c>
       <c r="H100">
+        <v>5</v>
+      </c>
+      <c r="I100">
         <v>2789</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>745000</v>
       </c>
       <c r="B101" t="s">
-        <v>575</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D101" s="1">
-        <v>10461</v>
-      </c>
-      <c r="E101" t="s">
-        <v>489</v>
-      </c>
-      <c r="F101">
-        <v>3</v>
+        <v>669</v>
+      </c>
+      <c r="F101" t="s">
+        <v>480</v>
       </c>
       <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
         <v>2</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>1836</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>599900</v>
       </c>
       <c r="B102" t="s">
-        <v>571</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D102" s="1">
-        <v>11203</v>
-      </c>
-      <c r="E102" t="s">
-        <v>490</v>
-      </c>
-      <c r="F102">
-        <v>3</v>
+        <v>670</v>
+      </c>
+      <c r="F102" t="s">
+        <v>481</v>
       </c>
       <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
         <v>2</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>1300</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>599990</v>
       </c>
       <c r="B103" t="s">
-        <v>570</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D103" s="1">
-        <v>10306</v>
-      </c>
-      <c r="E103" t="s">
-        <v>491</v>
-      </c>
-      <c r="F103">
-        <v>3</v>
+        <v>671</v>
+      </c>
+      <c r="F103" t="s">
+        <v>482</v>
       </c>
       <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
         <v>2</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>836</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1088888</v>
       </c>
       <c r="B104" t="s">
-        <v>594</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="D104" s="1">
-        <v>11357</v>
-      </c>
-      <c r="E104" t="s">
-        <v>492</v>
-      </c>
-      <c r="F104">
-        <v>3</v>
+        <v>672</v>
+      </c>
+      <c r="F104" t="s">
+        <v>483</v>
       </c>
       <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
         <v>2</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>1766</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1150000</v>
       </c>
       <c r="B105" t="s">
-        <v>596</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D105" s="1">
-        <v>11363</v>
-      </c>
-      <c r="E105" t="s">
-        <v>493</v>
-      </c>
-      <c r="F105">
-        <v>3</v>
+        <v>673</v>
+      </c>
+      <c r="F105" t="s">
+        <v>484</v>
       </c>
       <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2395000</v>
       </c>
       <c r="B106" t="s">
-        <v>571</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D106" s="1">
-        <v>11218</v>
-      </c>
-      <c r="E106" t="s">
-        <v>494</v>
-      </c>
-      <c r="F106">
-        <v>3</v>
+        <v>674</v>
+      </c>
+      <c r="F106" t="s">
+        <v>485</v>
       </c>
       <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106">
         <v>4</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>1845</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>549000</v>
       </c>
       <c r="B107" t="s">
-        <v>586</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D107" s="1">
-        <v>11436</v>
-      </c>
-      <c r="E107" t="s">
-        <v>495</v>
-      </c>
-      <c r="F107">
-        <v>3</v>
+        <v>675</v>
+      </c>
+      <c r="F107" t="s">
+        <v>486</v>
       </c>
       <c r="G107">
         <v>3</v>
       </c>
       <c r="H107">
+        <v>3</v>
+      </c>
+      <c r="I107">
         <v>1000</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2695000</v>
       </c>
       <c r="B108" t="s">
-        <v>570</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D108" s="1">
-        <v>10304</v>
-      </c>
-      <c r="E108" t="s">
-        <v>496</v>
-      </c>
-      <c r="F108">
+        <v>676</v>
+      </c>
+      <c r="F108" t="s">
+        <v>487</v>
+      </c>
+      <c r="G108">
         <v>4</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>7</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>9067</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1699000</v>
       </c>
       <c r="B109" t="s">
-        <v>575</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D109" s="1">
-        <v>10463</v>
-      </c>
-      <c r="E109" t="s">
-        <v>497</v>
-      </c>
-      <c r="F109">
+        <v>677</v>
+      </c>
+      <c r="F109" t="s">
+        <v>488</v>
+      </c>
+      <c r="G109">
         <v>7</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>4</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>3120</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>525000</v>
       </c>
       <c r="B110" t="s">
-        <v>571</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D110" s="1">
-        <v>11235</v>
-      </c>
-      <c r="E110" t="s">
-        <v>498</v>
-      </c>
-      <c r="F110">
-        <v>2</v>
+        <v>678</v>
+      </c>
+      <c r="F110" t="s">
+        <v>489</v>
       </c>
       <c r="G110">
         <v>2</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
         <v>720</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>790000</v>
       </c>
       <c r="B111" t="s">
-        <v>570</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D111" s="1">
-        <v>10304</v>
-      </c>
-      <c r="E111" t="s">
-        <v>499</v>
-      </c>
-      <c r="F111">
+        <v>679</v>
+      </c>
+      <c r="F111" t="s">
+        <v>490</v>
+      </c>
+      <c r="G111">
         <v>4</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>2</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>1500</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3148888</v>
       </c>
       <c r="B112" t="s">
-        <v>570</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D112" s="1">
-        <v>10307</v>
-      </c>
-      <c r="E112" t="s">
-        <v>500</v>
-      </c>
-      <c r="F112">
+        <v>680</v>
+      </c>
+      <c r="F112" t="s">
+        <v>491</v>
+      </c>
+      <c r="G112">
         <v>4</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>7</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>8004</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>7250000</v>
       </c>
       <c r="B113" t="s">
-        <v>571</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D113" s="1">
-        <v>11211</v>
-      </c>
-      <c r="E113" t="s">
-        <v>501</v>
-      </c>
-      <c r="F113">
+        <v>681</v>
+      </c>
+      <c r="F113" t="s">
+        <v>492</v>
+      </c>
+      <c r="G113">
         <v>4</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>5</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>4563</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>629000</v>
       </c>
       <c r="B114" t="s">
-        <v>570</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D114" s="1">
-        <v>10314</v>
-      </c>
-      <c r="E114" t="s">
-        <v>502</v>
-      </c>
-      <c r="F114">
-        <v>3</v>
+        <v>682</v>
+      </c>
+      <c r="F114" t="s">
+        <v>493</v>
       </c>
       <c r="G114">
         <v>3</v>
       </c>
       <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
         <v>1793</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>748000</v>
       </c>
       <c r="B115" t="s">
-        <v>586</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D115" s="1">
-        <v>11421</v>
-      </c>
-      <c r="E115" t="s">
-        <v>503</v>
-      </c>
-      <c r="F115">
+        <v>683</v>
+      </c>
+      <c r="F115" t="s">
+        <v>494</v>
+      </c>
+      <c r="G115">
         <v>4</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>788000</v>
       </c>
       <c r="B116" t="s">
-        <v>571</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D116" s="1">
-        <v>11234</v>
-      </c>
-      <c r="E116" t="s">
-        <v>504</v>
-      </c>
-      <c r="F116">
-        <v>3</v>
+        <v>684</v>
+      </c>
+      <c r="F116" t="s">
+        <v>495</v>
       </c>
       <c r="G116">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6750000</v>
       </c>
       <c r="B117" t="s">
-        <v>571</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D117" s="1">
-        <v>11217</v>
-      </c>
-      <c r="E117" t="s">
-        <v>505</v>
-      </c>
-      <c r="F117">
+        <v>685</v>
+      </c>
+      <c r="F117" t="s">
+        <v>496</v>
+      </c>
+      <c r="G117">
         <v>5</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>7</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>6011</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>895000</v>
       </c>
       <c r="B118" t="s">
-        <v>597</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="D118" s="1">
-        <v>11040</v>
-      </c>
-      <c r="E118" t="s">
-        <v>506</v>
-      </c>
-      <c r="F118">
+        <v>686</v>
+      </c>
+      <c r="F118" t="s">
+        <v>497</v>
+      </c>
+      <c r="G118">
         <v>4</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2658000</v>
       </c>
       <c r="B119" t="s">
-        <v>598</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D119" s="1">
-        <v>11418</v>
-      </c>
-      <c r="E119" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+      <c r="F119" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>659000</v>
       </c>
       <c r="B120" t="s">
-        <v>586</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D120" s="1">
-        <v>11426</v>
-      </c>
-      <c r="E120" t="s">
-        <v>508</v>
-      </c>
-      <c r="F120">
+        <v>688</v>
+      </c>
+      <c r="F120" t="s">
+        <v>499</v>
+      </c>
+      <c r="G120">
         <v>2</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>1</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>1000</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1178800</v>
       </c>
       <c r="B121" t="s">
-        <v>591</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D121" s="1">
-        <v>11364</v>
-      </c>
-      <c r="E121" t="s">
-        <v>509</v>
-      </c>
-      <c r="F121">
-        <v>3</v>
+        <v>689</v>
+      </c>
+      <c r="F121" t="s">
+        <v>500</v>
       </c>
       <c r="G121">
         <v>3</v>
       </c>
       <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121">
         <v>1248</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>928000</v>
       </c>
       <c r="B122" t="s">
-        <v>591</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D122" s="1">
-        <v>11360</v>
-      </c>
-      <c r="E122" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="F122" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>795000</v>
       </c>
       <c r="B123" t="s">
-        <v>575</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D123" s="1">
-        <v>10465</v>
-      </c>
-      <c r="E123" t="s">
-        <v>511</v>
-      </c>
-      <c r="F123">
-        <v>3</v>
+        <v>691</v>
+      </c>
+      <c r="F123" t="s">
+        <v>502</v>
       </c>
       <c r="G123">
         <v>3</v>
       </c>
       <c r="H123">
+        <v>3</v>
+      </c>
+      <c r="I123">
         <v>1632</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1680000</v>
       </c>
       <c r="B124" t="s">
-        <v>572</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D124" s="1">
-        <v>11358</v>
-      </c>
-      <c r="E124" t="s">
-        <v>512</v>
-      </c>
-      <c r="F124">
-        <v>3</v>
+        <v>692</v>
+      </c>
+      <c r="F124" t="s">
+        <v>503</v>
       </c>
       <c r="G124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>949000</v>
       </c>
       <c r="B125" t="s">
-        <v>599</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D125" s="1">
-        <v>11432</v>
-      </c>
-      <c r="E125" t="s">
-        <v>513</v>
-      </c>
-      <c r="F125">
-        <v>3</v>
+        <v>693</v>
+      </c>
+      <c r="F125" t="s">
+        <v>504</v>
       </c>
       <c r="G125">
+        <v>3</v>
+      </c>
+      <c r="H125">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>898800</v>
       </c>
       <c r="B126" t="s">
-        <v>572</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D126" s="1">
-        <v>11378</v>
-      </c>
-      <c r="E126" t="s">
-        <v>514</v>
-      </c>
-      <c r="F126">
-        <v>3</v>
+        <v>694</v>
+      </c>
+      <c r="F126" t="s">
+        <v>505</v>
       </c>
       <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126">
         <v>2</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>1900</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>399888</v>
       </c>
       <c r="B127" t="s">
-        <v>575</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D127" s="1">
-        <v>10466</v>
-      </c>
-      <c r="E127" t="s">
-        <v>515</v>
-      </c>
-      <c r="F127">
-        <v>3</v>
+        <v>695</v>
+      </c>
+      <c r="F127" t="s">
+        <v>506</v>
       </c>
       <c r="G127">
+        <v>3</v>
+      </c>
+      <c r="H127">
         <v>4</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>1613</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>895000</v>
       </c>
       <c r="B128" t="s">
-        <v>570</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D128" s="1">
-        <v>10314</v>
-      </c>
-      <c r="E128" t="s">
-        <v>516</v>
-      </c>
-      <c r="F128">
-        <v>3</v>
+        <v>696</v>
+      </c>
+      <c r="F128" t="s">
+        <v>507</v>
       </c>
       <c r="G128">
+        <v>3</v>
+      </c>
+      <c r="H128">
         <v>2</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>2408</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1279999</v>
       </c>
       <c r="B129" t="s">
-        <v>570</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D129" s="1">
-        <v>10314</v>
-      </c>
-      <c r="E129" t="s">
-        <v>517</v>
-      </c>
-      <c r="F129">
+        <v>697</v>
+      </c>
+      <c r="F129" t="s">
+        <v>508</v>
+      </c>
+      <c r="G129">
         <v>5</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>4</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>3500</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>599999</v>
       </c>
       <c r="B130" t="s">
-        <v>575</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D130" s="1">
-        <v>10452</v>
-      </c>
-      <c r="E130" t="s">
-        <v>518</v>
-      </c>
-      <c r="F130">
+        <v>698</v>
+      </c>
+      <c r="F130" t="s">
+        <v>509</v>
+      </c>
+      <c r="G130">
         <v>5</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>2</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>1635</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1199000</v>
       </c>
       <c r="B131" t="s">
-        <v>571</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D131" s="1">
-        <v>11204</v>
-      </c>
-      <c r="E131" t="s">
-        <v>519</v>
-      </c>
-      <c r="F131">
-        <v>3</v>
+        <v>699</v>
+      </c>
+      <c r="F131" t="s">
+        <v>510</v>
       </c>
       <c r="G131">
+        <v>3</v>
+      </c>
+      <c r="H131">
         <v>2</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>2160</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1249000</v>
       </c>
       <c r="B132" t="s">
-        <v>572</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D132" s="1">
-        <v>11358</v>
-      </c>
-      <c r="E132" t="s">
-        <v>520</v>
-      </c>
-      <c r="F132">
+        <v>700</v>
+      </c>
+      <c r="F132" t="s">
+        <v>511</v>
+      </c>
+      <c r="G132">
         <v>4</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>2</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>1728</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1699999</v>
       </c>
       <c r="B133" t="s">
-        <v>570</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D133" s="1">
-        <v>10314</v>
-      </c>
-      <c r="E133" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+      <c r="F133" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1225000</v>
       </c>
       <c r="B134" t="s">
-        <v>586</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D134" s="1">
-        <v>11414</v>
-      </c>
-      <c r="E134" t="s">
-        <v>522</v>
-      </c>
-      <c r="F134">
+        <v>702</v>
+      </c>
+      <c r="F134" t="s">
+        <v>513</v>
+      </c>
+      <c r="G134">
         <v>4</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>2</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>2100</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1099000</v>
       </c>
       <c r="B135" t="s">
-        <v>572</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D135" s="1">
-        <v>11358</v>
-      </c>
-      <c r="E135" t="s">
-        <v>523</v>
-      </c>
-      <c r="F135">
-        <v>3</v>
+        <v>703</v>
+      </c>
+      <c r="F135" t="s">
+        <v>514</v>
       </c>
       <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135">
         <v>2</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>4369</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>995000</v>
       </c>
       <c r="B136" t="s">
-        <v>572</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D136" s="1">
-        <v>11367</v>
-      </c>
-      <c r="E136" t="s">
-        <v>524</v>
-      </c>
-      <c r="F136">
-        <v>3</v>
+        <v>704</v>
+      </c>
+      <c r="F136" t="s">
+        <v>515</v>
       </c>
       <c r="G136">
+        <v>3</v>
+      </c>
+      <c r="H136">
         <v>2</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>1831</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2378000</v>
       </c>
       <c r="B137" t="s">
-        <v>600</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D137" s="1">
-        <v>11432</v>
-      </c>
-      <c r="E137" t="s">
-        <v>525</v>
-      </c>
-      <c r="F137">
-        <v>4</v>
+        <v>705</v>
+      </c>
+      <c r="F137" t="s">
+        <v>516</v>
       </c>
       <c r="G137">
         <v>4</v>
       </c>
       <c r="H137">
+        <v>4</v>
+      </c>
+      <c r="I137">
         <v>2850</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2795000</v>
       </c>
       <c r="B138" t="s">
-        <v>571</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D138" s="1">
-        <v>11209</v>
-      </c>
-      <c r="E138" t="s">
-        <v>526</v>
-      </c>
-      <c r="F138">
-        <v>4</v>
+        <v>706</v>
+      </c>
+      <c r="F138" t="s">
+        <v>517</v>
       </c>
       <c r="G138">
         <v>4</v>
       </c>
       <c r="H138">
+        <v>4</v>
+      </c>
+      <c r="I138">
         <v>2634</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>650000</v>
       </c>
       <c r="B139" t="s">
-        <v>586</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D139" s="1">
-        <v>11420</v>
-      </c>
-      <c r="E139" t="s">
-        <v>527</v>
-      </c>
-      <c r="F139">
-        <v>3</v>
+        <v>707</v>
+      </c>
+      <c r="F139" t="s">
+        <v>518</v>
       </c>
       <c r="G139">
+        <v>3</v>
+      </c>
+      <c r="H139">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>379000</v>
       </c>
       <c r="B140" t="s">
-        <v>570</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D140" s="1">
-        <v>10310</v>
-      </c>
-      <c r="E140" t="s">
-        <v>528</v>
-      </c>
-      <c r="F140">
-        <v>3</v>
+        <v>708</v>
+      </c>
+      <c r="F140" t="s">
+        <v>519</v>
       </c>
       <c r="G140">
+        <v>3</v>
+      </c>
+      <c r="H140">
         <v>2</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>1540</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1320000</v>
       </c>
       <c r="B141" t="s">
-        <v>571</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D141" s="1">
-        <v>11219</v>
-      </c>
-      <c r="E141" t="s">
-        <v>529</v>
-      </c>
-      <c r="F141">
+        <v>709</v>
+      </c>
+      <c r="F141" t="s">
+        <v>520</v>
+      </c>
+      <c r="G141">
         <v>6</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>4</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>1800</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>779000</v>
       </c>
       <c r="B142" t="s">
-        <v>571</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D142" s="1">
-        <v>11229</v>
-      </c>
-      <c r="E142" t="s">
-        <v>530</v>
-      </c>
-      <c r="F142">
-        <v>3</v>
+        <v>710</v>
+      </c>
+      <c r="F142" t="s">
+        <v>521</v>
       </c>
       <c r="G142">
+        <v>3</v>
+      </c>
+      <c r="H142">
         <v>2</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>1388</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1088000</v>
       </c>
       <c r="B143" t="s">
-        <v>572</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D143" s="1">
-        <v>11358</v>
-      </c>
-      <c r="E143" t="s">
-        <v>531</v>
-      </c>
-      <c r="F143">
+        <v>711</v>
+      </c>
+      <c r="F143" t="s">
+        <v>522</v>
+      </c>
+      <c r="G143">
         <v>4</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1628000</v>
       </c>
       <c r="B144" t="s">
-        <v>594</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="D144" s="1">
-        <v>11357</v>
-      </c>
-      <c r="E144" t="s">
-        <v>532</v>
-      </c>
-      <c r="F144">
-        <v>3</v>
+        <v>712</v>
+      </c>
+      <c r="F144" t="s">
+        <v>523</v>
       </c>
       <c r="G144">
+        <v>3</v>
+      </c>
+      <c r="H144">
         <v>4</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>2500</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1490000</v>
       </c>
       <c r="B145" t="s">
-        <v>590</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="D145" s="1">
-        <v>11362</v>
-      </c>
-      <c r="E145" t="s">
-        <v>533</v>
-      </c>
-      <c r="F145">
+        <v>713</v>
+      </c>
+      <c r="F145" t="s">
+        <v>524</v>
+      </c>
+      <c r="G145">
         <v>4</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>5</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>2082</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4200000</v>
       </c>
       <c r="B146" t="s">
-        <v>571</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D146" s="1">
-        <v>11231</v>
-      </c>
-      <c r="E146" t="s">
-        <v>534</v>
-      </c>
-      <c r="F146">
-        <v>3</v>
+        <v>714</v>
+      </c>
+      <c r="F146" t="s">
+        <v>525</v>
       </c>
       <c r="G146">
         <v>3</v>
       </c>
       <c r="H146">
+        <v>3</v>
+      </c>
+      <c r="I146">
         <v>2800</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>688900</v>
       </c>
       <c r="B147" t="s">
-        <v>570</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D147" s="1">
-        <v>10308</v>
-      </c>
-      <c r="E147" t="s">
-        <v>535</v>
-      </c>
-      <c r="F147">
+        <v>715</v>
+      </c>
+      <c r="F147" t="s">
+        <v>526</v>
+      </c>
+      <c r="G147">
         <v>4</v>
       </c>
-      <c r="G147">
-        <v>3</v>
-      </c>
       <c r="H147">
+        <v>3</v>
+      </c>
+      <c r="I147">
         <v>1921</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2350000</v>
       </c>
       <c r="B148" t="s">
-        <v>572</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D148" s="1">
-        <v>11375</v>
-      </c>
-      <c r="E148" t="s">
-        <v>536</v>
-      </c>
-      <c r="F148">
+        <v>716</v>
+      </c>
+      <c r="F148" t="s">
+        <v>527</v>
+      </c>
+      <c r="G148">
         <v>6</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>5</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>3590</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1495000</v>
       </c>
       <c r="B149" t="s">
-        <v>576</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D149" s="1">
-        <v>11375</v>
-      </c>
-      <c r="E149" t="s">
-        <v>537</v>
-      </c>
-      <c r="F149">
-        <v>3</v>
+        <v>717</v>
+      </c>
+      <c r="F149" t="s">
+        <v>528</v>
       </c>
       <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="H149">
         <v>2</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>1442</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>885000</v>
       </c>
       <c r="B150" t="s">
-        <v>571</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D150" s="1">
-        <v>11234</v>
-      </c>
-      <c r="E150" t="s">
-        <v>538</v>
-      </c>
-      <c r="F150">
+        <v>718</v>
+      </c>
+      <c r="F150" t="s">
+        <v>529</v>
+      </c>
+      <c r="G150">
         <v>4</v>
       </c>
-      <c r="G150">
-        <v>3</v>
-      </c>
       <c r="H150">
+        <v>3</v>
+      </c>
+      <c r="I150">
         <v>4000</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>18000000</v>
       </c>
       <c r="B151" t="s">
-        <v>571</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D151" s="1">
-        <v>11215</v>
-      </c>
-      <c r="E151" t="s">
-        <v>539</v>
-      </c>
-      <c r="F151">
+        <v>719</v>
+      </c>
+      <c r="F151" t="s">
+        <v>530</v>
+      </c>
+      <c r="G151">
         <v>5</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>4</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>6000</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>749000</v>
       </c>
       <c r="B152" t="s">
-        <v>570</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D152" s="1">
-        <v>10309</v>
-      </c>
-      <c r="E152" t="s">
-        <v>540</v>
-      </c>
-      <c r="F152">
-        <v>3</v>
+        <v>720</v>
+      </c>
+      <c r="F152" t="s">
+        <v>531</v>
       </c>
       <c r="G152">
+        <v>3</v>
+      </c>
+      <c r="H152">
         <v>2</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>1229</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2349000</v>
       </c>
       <c r="B153" t="s">
-        <v>571</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D153" s="1">
-        <v>11225</v>
-      </c>
-      <c r="E153" t="s">
-        <v>541</v>
-      </c>
-      <c r="F153">
-        <v>3</v>
+        <v>721</v>
+      </c>
+      <c r="F153" t="s">
+        <v>532</v>
       </c>
       <c r="G153">
+        <v>3</v>
+      </c>
+      <c r="H153">
         <v>4</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>2760</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>11900000</v>
       </c>
       <c r="B154" t="s">
-        <v>578</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="D154" s="1">
-        <v>10023</v>
-      </c>
-      <c r="E154" t="s">
-        <v>542</v>
-      </c>
-      <c r="F154">
+        <v>722</v>
+      </c>
+      <c r="F154" t="s">
+        <v>533</v>
+      </c>
+      <c r="G154">
         <v>6</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>9</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>7517</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>669990</v>
       </c>
       <c r="B155" t="s">
-        <v>601</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D155" s="1">
-        <v>11422</v>
-      </c>
-      <c r="E155" t="s">
-        <v>543</v>
-      </c>
-      <c r="F155">
-        <v>3</v>
+        <v>723</v>
+      </c>
+      <c r="F155" t="s">
+        <v>534</v>
       </c>
       <c r="G155">
+        <v>3</v>
+      </c>
+      <c r="H155">
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1199000</v>
       </c>
       <c r="B156" t="s">
-        <v>584</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D156" s="1">
-        <v>11414</v>
-      </c>
-      <c r="E156" t="s">
-        <v>544</v>
-      </c>
-      <c r="F156">
+        <v>724</v>
+      </c>
+      <c r="F156" t="s">
+        <v>535</v>
+      </c>
+      <c r="G156">
         <v>4</v>
       </c>
-      <c r="G156">
+      <c r="H156">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>749999</v>
       </c>
       <c r="B157" t="s">
-        <v>570</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D157" s="1">
-        <v>10306</v>
-      </c>
-      <c r="E157" t="s">
-        <v>545</v>
-      </c>
-      <c r="F157">
-        <v>3</v>
+        <v>725</v>
+      </c>
+      <c r="F157" t="s">
+        <v>536</v>
       </c>
       <c r="G157">
+        <v>3</v>
+      </c>
+      <c r="H157">
         <v>2</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>1216</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1350000</v>
       </c>
       <c r="B158" t="s">
-        <v>570</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D158" s="1">
-        <v>10306</v>
-      </c>
-      <c r="E158" t="s">
-        <v>546</v>
-      </c>
-      <c r="F158">
-        <v>4</v>
+        <v>726</v>
+      </c>
+      <c r="F158" t="s">
+        <v>537</v>
       </c>
       <c r="G158">
         <v>4</v>
       </c>
       <c r="H158">
+        <v>4</v>
+      </c>
+      <c r="I158">
         <v>2376</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1250000</v>
       </c>
       <c r="B159" t="s">
-        <v>591</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D159" s="1">
-        <v>11361</v>
-      </c>
-      <c r="E159" t="s">
-        <v>547</v>
-      </c>
-      <c r="F159">
-        <v>3</v>
+        <v>727</v>
+      </c>
+      <c r="F159" t="s">
+        <v>538</v>
       </c>
       <c r="G159">
+        <v>3</v>
+      </c>
+      <c r="H159">
         <v>2</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <v>1898</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2999888</v>
       </c>
       <c r="B160" t="s">
-        <v>571</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D160" s="1">
-        <v>11228</v>
-      </c>
-      <c r="E160" t="s">
-        <v>548</v>
-      </c>
-      <c r="F160">
+        <v>728</v>
+      </c>
+      <c r="F160" t="s">
+        <v>539</v>
+      </c>
+      <c r="G160">
         <v>4</v>
       </c>
-      <c r="G160">
+      <c r="H160">
         <v>5</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>2888</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>978000</v>
       </c>
       <c r="B161" t="s">
-        <v>602</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="D161" s="1">
-        <v>11365</v>
-      </c>
-      <c r="E161" t="s">
-        <v>549</v>
-      </c>
-      <c r="F161">
+        <v>729</v>
+      </c>
+      <c r="F161" t="s">
+        <v>540</v>
+      </c>
+      <c r="G161">
         <v>4</v>
       </c>
-      <c r="G161">
+      <c r="H161">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>490000</v>
       </c>
       <c r="B162" t="s">
-        <v>570</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D162" s="1">
-        <v>10308</v>
-      </c>
-      <c r="E162" t="s">
-        <v>550</v>
-      </c>
-      <c r="F162">
+        <v>730</v>
+      </c>
+      <c r="F162" t="s">
+        <v>541</v>
+      </c>
+      <c r="G162">
         <v>2</v>
       </c>
-      <c r="G162">
+      <c r="H162">
         <v>1</v>
       </c>
-      <c r="H162">
+      <c r="I162">
         <v>728</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2890000</v>
       </c>
       <c r="B163" t="s">
-        <v>570</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D163" s="1">
-        <v>10301</v>
-      </c>
-      <c r="E163" t="s">
-        <v>551</v>
-      </c>
-      <c r="F163">
+        <v>731</v>
+      </c>
+      <c r="F163" t="s">
+        <v>542</v>
+      </c>
+      <c r="G163">
         <v>4</v>
       </c>
-      <c r="G163">
+      <c r="H163">
         <v>5</v>
       </c>
-      <c r="H163">
+      <c r="I163">
         <v>6000</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1050000</v>
       </c>
       <c r="B164" t="s">
-        <v>572</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D164" s="1">
-        <v>11378</v>
-      </c>
-      <c r="E164" t="s">
-        <v>552</v>
-      </c>
-      <c r="F164">
+        <v>732</v>
+      </c>
+      <c r="F164" t="s">
+        <v>543</v>
+      </c>
+      <c r="G164">
         <v>4</v>
       </c>
-      <c r="G164">
+      <c r="H164">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>588000</v>
       </c>
       <c r="B165" t="s">
-        <v>575</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D165" s="1">
-        <v>10465</v>
-      </c>
-      <c r="E165" t="s">
-        <v>553</v>
-      </c>
-      <c r="F165">
-        <v>3</v>
+        <v>733</v>
+      </c>
+      <c r="F165" t="s">
+        <v>544</v>
       </c>
       <c r="G165">
         <v>3</v>
       </c>
       <c r="H165">
+        <v>3</v>
+      </c>
+      <c r="I165">
         <v>1962</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>518500</v>
       </c>
       <c r="B166" t="s">
-        <v>581</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="D166" s="1">
-        <v>11423</v>
-      </c>
-      <c r="E166" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+      <c r="F166" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1598900</v>
       </c>
       <c r="B167" t="s">
-        <v>571</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D167" s="1">
-        <v>11218</v>
-      </c>
-      <c r="E167" t="s">
-        <v>555</v>
-      </c>
-      <c r="F167">
-        <v>3</v>
+        <v>735</v>
+      </c>
+      <c r="F167" t="s">
+        <v>546</v>
       </c>
       <c r="G167">
+        <v>3</v>
+      </c>
+      <c r="H167">
         <v>2</v>
       </c>
-      <c r="H167">
+      <c r="I167">
         <v>1435</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>575000</v>
       </c>
       <c r="B168" t="s">
-        <v>582</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D168" s="1">
-        <v>11413</v>
-      </c>
-      <c r="E168" t="s">
-        <v>556</v>
-      </c>
-      <c r="F168">
-        <v>3</v>
+        <v>736</v>
+      </c>
+      <c r="F168" t="s">
+        <v>547</v>
       </c>
       <c r="G168">
         <v>3</v>
       </c>
       <c r="H168">
+        <v>3</v>
+      </c>
+      <c r="I168">
         <v>1652</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>565000</v>
       </c>
       <c r="B169" t="s">
-        <v>571</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D169" s="1">
-        <v>11207</v>
-      </c>
-      <c r="E169" t="s">
-        <v>557</v>
-      </c>
-      <c r="F169">
-        <v>3</v>
+        <v>737</v>
+      </c>
+      <c r="F169" t="s">
+        <v>548</v>
       </c>
       <c r="G169">
+        <v>3</v>
+      </c>
+      <c r="H169">
         <v>2</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <v>1899</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>4800000</v>
       </c>
       <c r="B170" t="s">
-        <v>571</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D170" s="1">
-        <v>11217</v>
-      </c>
-      <c r="E170" t="s">
-        <v>558</v>
-      </c>
-      <c r="F170">
+        <v>738</v>
+      </c>
+      <c r="F170" t="s">
+        <v>549</v>
+      </c>
+      <c r="G170">
         <v>4</v>
       </c>
-      <c r="G170">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>995000</v>
       </c>
       <c r="B171" t="s">
-        <v>586</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D171" s="1">
-        <v>11432</v>
-      </c>
-      <c r="E171" t="s">
-        <v>559</v>
-      </c>
-      <c r="F171">
-        <v>3</v>
+        <v>739</v>
+      </c>
+      <c r="F171" t="s">
+        <v>550</v>
       </c>
       <c r="G171">
         <v>3</v>
       </c>
       <c r="H171">
+        <v>3</v>
+      </c>
+      <c r="I171">
         <v>1956</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2088000</v>
       </c>
       <c r="B172" t="s">
-        <v>572</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D172" s="1">
-        <v>11358</v>
-      </c>
-      <c r="E172" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+      <c r="F172" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>599000</v>
       </c>
       <c r="B173" t="s">
-        <v>603</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="D173" s="1">
-        <v>11693</v>
-      </c>
-      <c r="E173" t="s">
-        <v>561</v>
-      </c>
-      <c r="F173">
-        <v>3</v>
+        <v>741</v>
+      </c>
+      <c r="F173" t="s">
+        <v>552</v>
       </c>
       <c r="G173">
+        <v>3</v>
+      </c>
+      <c r="H173">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>699000</v>
       </c>
       <c r="B174" t="s">
-        <v>586</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D174" s="1">
-        <v>11435</v>
-      </c>
-      <c r="E174" t="s">
-        <v>562</v>
-      </c>
-      <c r="F174">
-        <v>3</v>
+        <v>742</v>
+      </c>
+      <c r="F174" t="s">
+        <v>553</v>
       </c>
       <c r="G174">
+        <v>3</v>
+      </c>
+      <c r="H174">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>799999</v>
       </c>
       <c r="B175" t="s">
-        <v>575</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D175" s="1">
-        <v>10471</v>
-      </c>
-      <c r="E175" t="s">
-        <v>563</v>
-      </c>
-      <c r="F175">
-        <v>3</v>
+        <v>743</v>
+      </c>
+      <c r="F175" t="s">
+        <v>554</v>
       </c>
       <c r="G175">
+        <v>3</v>
+      </c>
+      <c r="H175">
         <v>2</v>
       </c>
-      <c r="H175">
+      <c r="I175">
         <v>1436</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1.05</v>
       </c>
       <c r="B176" t="s">
-        <v>572</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D176" s="1">
-        <v>11365</v>
-      </c>
-      <c r="E176" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+      <c r="F176" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1355000</v>
       </c>
       <c r="B177" t="s">
-        <v>571</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D177" s="1">
-        <v>11219</v>
-      </c>
-      <c r="E177" t="s">
-        <v>565</v>
-      </c>
-      <c r="F177">
-        <v>3</v>
+        <v>745</v>
+      </c>
+      <c r="F177" t="s">
+        <v>556</v>
       </c>
       <c r="G177">
         <v>3</v>
       </c>
       <c r="H177">
+        <v>3</v>
+      </c>
+      <c r="I177">
         <v>1242</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1695000</v>
       </c>
       <c r="B178" t="s">
-        <v>571</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D178" s="1">
-        <v>11209</v>
-      </c>
-      <c r="E178" t="s">
-        <v>566</v>
-      </c>
-      <c r="F178">
-        <v>3</v>
+        <v>746</v>
+      </c>
+      <c r="F178" t="s">
+        <v>557</v>
       </c>
       <c r="G178">
+        <v>3</v>
+      </c>
+      <c r="H178">
         <v>4</v>
       </c>
-      <c r="H178">
+      <c r="I178">
         <v>1536</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>869000</v>
       </c>
       <c r="B179" t="s">
-        <v>571</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D179" s="1">
-        <v>11234</v>
-      </c>
-      <c r="E179" t="s">
-        <v>567</v>
-      </c>
-      <c r="F179">
-        <v>3</v>
+        <v>747</v>
+      </c>
+      <c r="F179" t="s">
+        <v>558</v>
       </c>
       <c r="G179">
         <v>3</v>
       </c>
       <c r="H179">
+        <v>3</v>
+      </c>
+      <c r="I179">
         <v>2400</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>965000</v>
       </c>
       <c r="B180" t="s">
-        <v>571</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D180" s="1">
-        <v>11228</v>
-      </c>
-      <c r="E180" t="s">
-        <v>568</v>
-      </c>
-      <c r="F180">
-        <v>3</v>
+        <v>748</v>
+      </c>
+      <c r="F180" t="s">
+        <v>559</v>
       </c>
       <c r="G180">
+        <v>3</v>
+      </c>
+      <c r="H180">
         <v>2</v>
       </c>
-      <c r="H180">
+      <c r="I180">
         <v>1344</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2900000</v>
       </c>
       <c r="B181" t="s">
-        <v>571</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D181" s="1">
-        <v>11215</v>
-      </c>
-      <c r="E181" t="s">
-        <v>569</v>
+        <v>749</v>
+      </c>
+      <c r="F181" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
